--- a/CHOROBOWE_osoby fizyczne.xlsx
+++ b/CHOROBOWE_osoby fizyczne.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mypc/Desktop/Studia/RStudio/straz_graniczna/data-raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33DC959-8995-A747-A295-88D53D2C68A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22995" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2017" sheetId="3" r:id="rId2"/>
-    <sheet name="03,06.2018" sheetId="4" r:id="rId3"/>
+    <sheet name="2018" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'03,06.2018'!$A$1:$Y$182</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2017'!$A$1:$AW$178</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2018'!$A$1:$Y$182</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1104,13 +1110,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0__"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0__"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2317,7 +2323,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2407,19 +2413,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="32" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="32" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="28" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="28" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="36" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="36" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2428,19 +2434,19 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2453,36 +2459,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="38" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="38" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="27" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="27" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="34" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="23" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="23" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="39" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="39" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="35" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="35" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="22" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -2506,70 +2512,55 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="18" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="38" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="38" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="39" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="39" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="9" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,6 +2568,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2590,27 +2605,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2620,16 +2614,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2649,24 +2655,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="64">
-    <cellStyle name="20% - akcent 1" xfId="37" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 2" xfId="41" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 3" xfId="45" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 4" xfId="49" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 5" xfId="53" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - akcent 6" xfId="57" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 1" xfId="38" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 2" xfId="42" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 3" xfId="46" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 4" xfId="50" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 5" xfId="54" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - akcent 6" xfId="58" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 1" xfId="39" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 2" xfId="43" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 3" xfId="47" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 4" xfId="51" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 5" xfId="55" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - akcent 6" xfId="59" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 1" xfId="37" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 2" xfId="41" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 3" xfId="45" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 4" xfId="49" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 5" xfId="53" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 6" xfId="57" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 1" xfId="38" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 2" xfId="42" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 3" xfId="46" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 4" xfId="50" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 5" xfId="54" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 6" xfId="58" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 1" xfId="39" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 2" xfId="43" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 3" xfId="47" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 4" xfId="51" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 5" xfId="55" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 6" xfId="59" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Akcent 1" xfId="36" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Akcent 2" xfId="40" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Akcent 3" xfId="44" builtinId="37" customBuiltin="1"/>
@@ -2675,7 +2681,7 @@
     <cellStyle name="Akcent 6" xfId="56" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Dane wejściowe" xfId="28" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Dane wyjściowe" xfId="29" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Dobre" xfId="25" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dobry" xfId="25" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Dziesiętny" xfId="11" builtinId="3"/>
     <cellStyle name="Komórka połączona" xfId="31" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Komórka zaznaczona" xfId="32" builtinId="23" customBuiltin="1"/>
@@ -2683,42 +2689,45 @@
     <cellStyle name="Nagłówek 2" xfId="22" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Nagłówek 3" xfId="23" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Nagłówek 4" xfId="24" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutralne" xfId="27" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutralny" xfId="27" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="19"/>
-    <cellStyle name="Normalny 10 2" xfId="60"/>
-    <cellStyle name="Normalny 2" xfId="1"/>
-    <cellStyle name="Normalny 2 2" xfId="3"/>
-    <cellStyle name="Normalny 2 2 2" xfId="13"/>
-    <cellStyle name="Normalny 2 3" xfId="61"/>
-    <cellStyle name="Normalny 3" xfId="4"/>
-    <cellStyle name="Normalny 3 2" xfId="5"/>
-    <cellStyle name="Normalny 3 2 2" xfId="15"/>
-    <cellStyle name="Normalny 3 3" xfId="14"/>
-    <cellStyle name="Normalny 4" xfId="6"/>
-    <cellStyle name="Normalny 5" xfId="7"/>
-    <cellStyle name="Normalny 5 2" xfId="16"/>
-    <cellStyle name="Normalny 6" xfId="8"/>
-    <cellStyle name="Normalny 6 2" xfId="17"/>
-    <cellStyle name="Normalny 7" xfId="9"/>
-    <cellStyle name="Normalny 7 2" xfId="18"/>
-    <cellStyle name="Normalny 8" xfId="10"/>
-    <cellStyle name="Normalny 8 2" xfId="62"/>
-    <cellStyle name="Normalny 9" xfId="2"/>
-    <cellStyle name="Normalny 9 2" xfId="12"/>
+    <cellStyle name="Normalny 10" xfId="19" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normalny 10 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normalny 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normalny 2 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normalny 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normalny 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normalny 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normalny 3 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normalny 3 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normalny 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normalny 5" xfId="7" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normalny 5 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normalny 6" xfId="8" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normalny 6 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normalny 7" xfId="9" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normalny 7 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normalny 8" xfId="10" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normalny 8 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normalny 9" xfId="2" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normalny 9 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Obliczenia" xfId="30" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Suma" xfId="35" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Tekst objaśnienia" xfId="34" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Tekst ostrzeżenia" xfId="33" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Tytuł" xfId="20" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Uwaga 2" xfId="63"/>
-    <cellStyle name="Złe" xfId="26" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Uwaga 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Zły" xfId="26" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2767,7 +2776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2800,9 +2809,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2835,6 +2861,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -3010,227 +3053,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX176"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="AR169" workbookViewId="0">
       <selection activeCell="AL9" sqref="AL9:AL172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="5" customWidth="1"/>
-    <col min="2" max="4" width="11.85546875" style="5" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" style="5" customWidth="1"/>
-    <col min="8" max="10" width="11.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="5" customWidth="1"/>
-    <col min="14" max="16" width="11.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="11.83203125" style="5" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" style="5" customWidth="1"/>
+    <col min="8" max="10" width="11.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="5" customWidth="1"/>
+    <col min="14" max="16" width="11.83203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="5" customWidth="1"/>
     <col min="19" max="19" width="10" style="5" customWidth="1"/>
-    <col min="20" max="22" width="11.85546875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="5" customWidth="1"/>
-    <col min="25" max="28" width="11.85546875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" style="5" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" style="5" customWidth="1"/>
+    <col min="20" max="22" width="11.83203125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9.83203125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" style="5" customWidth="1"/>
+    <col min="25" max="28" width="11.83203125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="9.5" style="5" customWidth="1"/>
     <col min="31" max="31" width="10" style="5" customWidth="1"/>
-    <col min="32" max="40" width="11.85546875" style="5" customWidth="1"/>
-    <col min="41" max="41" width="10.42578125" style="5" customWidth="1"/>
-    <col min="42" max="42" width="10.28515625" style="5" customWidth="1"/>
+    <col min="32" max="40" width="11.83203125" style="5" customWidth="1"/>
+    <col min="41" max="41" width="10.5" style="5" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" style="5" customWidth="1"/>
     <col min="43" max="43" width="10" style="5" customWidth="1"/>
-    <col min="44" max="46" width="11.85546875" style="5" customWidth="1"/>
-    <col min="47" max="47" width="10.42578125" style="5" customWidth="1"/>
-    <col min="48" max="49" width="10.140625" style="5" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="5"/>
+    <col min="44" max="46" width="11.83203125" style="5" customWidth="1"/>
+    <col min="47" max="47" width="10.5" style="5" customWidth="1"/>
+    <col min="48" max="49" width="10.1640625" style="5" customWidth="1"/>
+    <col min="50" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:50" ht="34.5" customHeight="1">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="14.25" customHeight="1">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+    <row r="3" spans="1:50" ht="16">
+      <c r="A3" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
-    <row r="4" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="16" thickBot="1">
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:50" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="71" t="s">
+    <row r="5" spans="1:50" s="7" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A5" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="74" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="71" t="s">
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="74" t="s">
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="80"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="72"/>
-      <c r="AS5" s="72"/>
-      <c r="AT5" s="72"/>
-      <c r="AU5" s="72"/>
-      <c r="AV5" s="72"/>
-      <c r="AW5" s="73"/>
+      <c r="AM5" s="80"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="80"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="80"/>
+      <c r="AR5" s="80"/>
+      <c r="AS5" s="80"/>
+      <c r="AT5" s="80"/>
+      <c r="AU5" s="80"/>
+      <c r="AV5" s="80"/>
+      <c r="AW5" s="81"/>
     </row>
-    <row r="6" spans="1:50" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
-      <c r="B6" s="75" t="s">
+    <row r="6" spans="1:50" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="75" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="75" t="s">
+      <c r="O6" s="72"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="79" t="s">
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="75" t="s">
+      <c r="U6" s="72"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="75" t="s">
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="79" t="s">
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="79" t="s">
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="75" t="s">
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="79" t="s">
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="78"/>
+      <c r="AS6" s="72"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="72"/>
+      <c r="AW6" s="73"/>
     </row>
-    <row r="7" spans="1:50" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+    <row r="7" spans="1:50" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A7" s="78"/>
       <c r="B7" s="21" t="s">
         <v>3</v>
       </c>
@@ -3376,7 +3419,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="16" thickBot="1">
       <c r="A8" s="29" t="s">
         <v>178</v>
       </c>
@@ -3525,7 +3568,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50">
       <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
@@ -3675,7 +3718,7 @@
       </c>
       <c r="AX9" s="52"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50">
       <c r="A10" s="36" t="s">
         <v>7</v>
       </c>
@@ -3825,7 +3868,7 @@
       </c>
       <c r="AX10" s="52"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50">
       <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
@@ -3975,7 +4018,7 @@
       </c>
       <c r="AX11" s="52"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50">
       <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
@@ -4125,7 +4168,7 @@
       </c>
       <c r="AX12" s="52"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50">
       <c r="A13" s="36" t="s">
         <v>10</v>
       </c>
@@ -4275,7 +4318,7 @@
       </c>
       <c r="AX13" s="52"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50">
       <c r="A14" s="36" t="s">
         <v>11</v>
       </c>
@@ -4425,7 +4468,7 @@
       </c>
       <c r="AX14" s="52"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50">
       <c r="A15" s="36" t="s">
         <v>12</v>
       </c>
@@ -4575,7 +4618,7 @@
       </c>
       <c r="AX15" s="52"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50">
       <c r="A16" s="36" t="s">
         <v>13</v>
       </c>
@@ -4725,7 +4768,7 @@
       </c>
       <c r="AX16" s="52"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50">
       <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
@@ -4875,7 +4918,7 @@
       </c>
       <c r="AX17" s="52"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50">
       <c r="A18" s="36" t="s">
         <v>15</v>
       </c>
@@ -5025,7 +5068,7 @@
       </c>
       <c r="AX18" s="52"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50">
       <c r="A19" s="36" t="s">
         <v>16</v>
       </c>
@@ -5175,7 +5218,7 @@
       </c>
       <c r="AX19" s="52"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50">
       <c r="A20" s="36" t="s">
         <v>17</v>
       </c>
@@ -5325,7 +5368,7 @@
       </c>
       <c r="AX20" s="52"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50">
       <c r="A21" s="36" t="s">
         <v>18</v>
       </c>
@@ -5475,7 +5518,7 @@
       </c>
       <c r="AX21" s="52"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50">
       <c r="A22" s="36" t="s">
         <v>19</v>
       </c>
@@ -5625,7 +5668,7 @@
       </c>
       <c r="AX22" s="52"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50">
       <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
@@ -5775,7 +5818,7 @@
       </c>
       <c r="AX23" s="52"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50">
       <c r="A24" s="36" t="s">
         <v>21</v>
       </c>
@@ -5925,7 +5968,7 @@
       </c>
       <c r="AX24" s="52"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50">
       <c r="A25" s="36" t="s">
         <v>22</v>
       </c>
@@ -6075,7 +6118,7 @@
       </c>
       <c r="AX25" s="52"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50">
       <c r="A26" s="36" t="s">
         <v>23</v>
       </c>
@@ -6225,7 +6268,7 @@
       </c>
       <c r="AX26" s="52"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50">
       <c r="A27" s="36" t="s">
         <v>24</v>
       </c>
@@ -6375,7 +6418,7 @@
       </c>
       <c r="AX27" s="52"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50">
       <c r="A28" s="36" t="s">
         <v>168</v>
       </c>
@@ -6525,7 +6568,7 @@
       </c>
       <c r="AX28" s="52"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50">
       <c r="A29" s="36" t="s">
         <v>25</v>
       </c>
@@ -6675,7 +6718,7 @@
       </c>
       <c r="AX29" s="52"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50">
       <c r="A30" s="36" t="s">
         <v>26</v>
       </c>
@@ -6825,7 +6868,7 @@
       </c>
       <c r="AX30" s="52"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50">
       <c r="A31" s="36" t="s">
         <v>169</v>
       </c>
@@ -6975,7 +7018,7 @@
       </c>
       <c r="AX31" s="52"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50">
       <c r="A32" s="36" t="s">
         <v>27</v>
       </c>
@@ -7125,7 +7168,7 @@
       </c>
       <c r="AX32" s="52"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50">
       <c r="A33" s="36" t="s">
         <v>170</v>
       </c>
@@ -7275,7 +7318,7 @@
       </c>
       <c r="AX33" s="52"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50">
       <c r="A34" s="36" t="s">
         <v>28</v>
       </c>
@@ -7425,7 +7468,7 @@
       </c>
       <c r="AX34" s="52"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50">
       <c r="A35" s="36" t="s">
         <v>29</v>
       </c>
@@ -7575,7 +7618,7 @@
       </c>
       <c r="AX35" s="52"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50">
       <c r="A36" s="36" t="s">
         <v>30</v>
       </c>
@@ -7725,7 +7768,7 @@
       </c>
       <c r="AX36" s="52"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50">
       <c r="A37" s="36" t="s">
         <v>31</v>
       </c>
@@ -7875,7 +7918,7 @@
       </c>
       <c r="AX37" s="52"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50">
       <c r="A38" s="37" t="s">
         <v>32</v>
       </c>
@@ -8025,7 +8068,7 @@
       </c>
       <c r="AX38" s="52"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50">
       <c r="A39" s="36" t="s">
         <v>33</v>
       </c>
@@ -8175,7 +8218,7 @@
       </c>
       <c r="AX39" s="52"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50">
       <c r="A40" s="36" t="s">
         <v>34</v>
       </c>
@@ -8325,7 +8368,7 @@
       </c>
       <c r="AX40" s="52"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50">
       <c r="A41" s="37" t="s">
         <v>35</v>
       </c>
@@ -8475,7 +8518,7 @@
       </c>
       <c r="AX41" s="52"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50">
       <c r="A42" s="36" t="s">
         <v>36</v>
       </c>
@@ -8625,7 +8668,7 @@
       </c>
       <c r="AX42" s="52"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50">
       <c r="A43" s="37" t="s">
         <v>37</v>
       </c>
@@ -8775,7 +8818,7 @@
       </c>
       <c r="AX43" s="52"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50">
       <c r="A44" s="36" t="s">
         <v>38</v>
       </c>
@@ -8925,7 +8968,7 @@
       </c>
       <c r="AX44" s="52"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50">
       <c r="A45" s="36" t="s">
         <v>39</v>
       </c>
@@ -9075,7 +9118,7 @@
       </c>
       <c r="AX45" s="52"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50">
       <c r="A46" s="36" t="s">
         <v>40</v>
       </c>
@@ -9225,7 +9268,7 @@
       </c>
       <c r="AX46" s="52"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50">
       <c r="A47" s="36" t="s">
         <v>42</v>
       </c>
@@ -9375,7 +9418,7 @@
       </c>
       <c r="AX47" s="52"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50">
       <c r="A48" s="36" t="s">
         <v>43</v>
       </c>
@@ -9525,7 +9568,7 @@
       </c>
       <c r="AX48" s="52"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50">
       <c r="A49" s="36" t="s">
         <v>44</v>
       </c>
@@ -9675,7 +9718,7 @@
       </c>
       <c r="AX49" s="52"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50">
       <c r="A50" s="36" t="s">
         <v>45</v>
       </c>
@@ -9825,7 +9868,7 @@
       </c>
       <c r="AX50" s="52"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50">
       <c r="A51" s="36" t="s">
         <v>46</v>
       </c>
@@ -9975,7 +10018,7 @@
       </c>
       <c r="AX51" s="52"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50">
       <c r="A52" s="36" t="s">
         <v>47</v>
       </c>
@@ -10125,7 +10168,7 @@
       </c>
       <c r="AX52" s="52"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50">
       <c r="A53" s="36" t="s">
         <v>48</v>
       </c>
@@ -10275,7 +10318,7 @@
       </c>
       <c r="AX53" s="52"/>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50">
       <c r="A54" s="36" t="s">
         <v>49</v>
       </c>
@@ -10425,7 +10468,7 @@
       </c>
       <c r="AX54" s="52"/>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50">
       <c r="A55" s="36" t="s">
         <v>50</v>
       </c>
@@ -10575,7 +10618,7 @@
       </c>
       <c r="AX55" s="52"/>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50">
       <c r="A56" s="36" t="s">
         <v>171</v>
       </c>
@@ -10725,7 +10768,7 @@
       </c>
       <c r="AX56" s="52"/>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50">
       <c r="A57" s="36" t="s">
         <v>51</v>
       </c>
@@ -10875,7 +10918,7 @@
       </c>
       <c r="AX57" s="52"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50">
       <c r="A58" s="36" t="s">
         <v>52</v>
       </c>
@@ -11025,7 +11068,7 @@
       </c>
       <c r="AX58" s="52"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50">
       <c r="A59" s="36" t="s">
         <v>53</v>
       </c>
@@ -11175,7 +11218,7 @@
       </c>
       <c r="AX59" s="52"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50">
       <c r="A60" s="36" t="s">
         <v>54</v>
       </c>
@@ -11325,7 +11368,7 @@
       </c>
       <c r="AX60" s="52"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50">
       <c r="A61" s="36" t="s">
         <v>55</v>
       </c>
@@ -11475,7 +11518,7 @@
       </c>
       <c r="AX61" s="52"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50">
       <c r="A62" s="36" t="s">
         <v>56</v>
       </c>
@@ -11625,7 +11668,7 @@
       </c>
       <c r="AX62" s="52"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50">
       <c r="A63" s="36" t="s">
         <v>57</v>
       </c>
@@ -11775,7 +11818,7 @@
       </c>
       <c r="AX63" s="52"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50">
       <c r="A64" s="36" t="s">
         <v>58</v>
       </c>
@@ -11925,7 +11968,7 @@
       </c>
       <c r="AX64" s="52"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50">
       <c r="A65" s="36" t="s">
         <v>59</v>
       </c>
@@ -12075,7 +12118,7 @@
       </c>
       <c r="AX65" s="52"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50">
       <c r="A66" s="36" t="s">
         <v>60</v>
       </c>
@@ -12225,7 +12268,7 @@
       </c>
       <c r="AX66" s="52"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50">
       <c r="A67" s="37" t="s">
         <v>61</v>
       </c>
@@ -12375,7 +12418,7 @@
       </c>
       <c r="AX67" s="52"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50">
       <c r="A68" s="36" t="s">
         <v>62</v>
       </c>
@@ -12525,7 +12568,7 @@
       </c>
       <c r="AX68" s="52"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50">
       <c r="A69" s="36" t="s">
         <v>63</v>
       </c>
@@ -12675,7 +12718,7 @@
       </c>
       <c r="AX69" s="52"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50">
       <c r="A70" s="36" t="s">
         <v>64</v>
       </c>
@@ -12825,7 +12868,7 @@
       </c>
       <c r="AX70" s="52"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50">
       <c r="A71" s="36" t="s">
         <v>65</v>
       </c>
@@ -12975,7 +13018,7 @@
       </c>
       <c r="AX71" s="52"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50">
       <c r="A72" s="36" t="s">
         <v>66</v>
       </c>
@@ -13125,7 +13168,7 @@
       </c>
       <c r="AX72" s="52"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50">
       <c r="A73" s="36" t="s">
         <v>67</v>
       </c>
@@ -13275,7 +13318,7 @@
       </c>
       <c r="AX73" s="52"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50">
       <c r="A74" s="36" t="s">
         <v>68</v>
       </c>
@@ -13425,7 +13468,7 @@
       </c>
       <c r="AX74" s="52"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50">
       <c r="A75" s="36" t="s">
         <v>69</v>
       </c>
@@ -13575,7 +13618,7 @@
       </c>
       <c r="AX75" s="52"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50">
       <c r="A76" s="36" t="s">
         <v>70</v>
       </c>
@@ -13725,7 +13768,7 @@
       </c>
       <c r="AX76" s="52"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50">
       <c r="A77" s="36" t="s">
         <v>71</v>
       </c>
@@ -13875,7 +13918,7 @@
       </c>
       <c r="AX77" s="52"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50">
       <c r="A78" s="36" t="s">
         <v>72</v>
       </c>
@@ -14025,7 +14068,7 @@
       </c>
       <c r="AX78" s="52"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50">
       <c r="A79" s="36" t="s">
         <v>73</v>
       </c>
@@ -14175,7 +14218,7 @@
       </c>
       <c r="AX79" s="52"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50">
       <c r="A80" s="36" t="s">
         <v>74</v>
       </c>
@@ -14325,7 +14368,7 @@
       </c>
       <c r="AX80" s="52"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50">
       <c r="A81" s="36" t="s">
         <v>75</v>
       </c>
@@ -14475,7 +14518,7 @@
       </c>
       <c r="AX81" s="52"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50">
       <c r="A82" s="36" t="s">
         <v>76</v>
       </c>
@@ -14625,7 +14668,7 @@
       </c>
       <c r="AX82" s="52"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50">
       <c r="A83" s="36" t="s">
         <v>77</v>
       </c>
@@ -14775,7 +14818,7 @@
       </c>
       <c r="AX83" s="52"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50">
       <c r="A84" s="36" t="s">
         <v>79</v>
       </c>
@@ -14925,7 +14968,7 @@
       </c>
       <c r="AX84" s="52"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50">
       <c r="A85" s="36" t="s">
         <v>80</v>
       </c>
@@ -15075,7 +15118,7 @@
       </c>
       <c r="AX85" s="52"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50">
       <c r="A86" s="36" t="s">
         <v>81</v>
       </c>
@@ -15225,7 +15268,7 @@
       </c>
       <c r="AX86" s="52"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50">
       <c r="A87" s="36" t="s">
         <v>82</v>
       </c>
@@ -15375,7 +15418,7 @@
       </c>
       <c r="AX87" s="52"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50">
       <c r="A88" s="36" t="s">
         <v>83</v>
       </c>
@@ -15525,7 +15568,7 @@
       </c>
       <c r="AX88" s="52"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50">
       <c r="A89" s="36" t="s">
         <v>84</v>
       </c>
@@ -15675,7 +15718,7 @@
       </c>
       <c r="AX89" s="52"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50">
       <c r="A90" s="36" t="s">
         <v>85</v>
       </c>
@@ -15825,7 +15868,7 @@
       </c>
       <c r="AX90" s="52"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50">
       <c r="A91" s="36" t="s">
         <v>86</v>
       </c>
@@ -15975,7 +16018,7 @@
       </c>
       <c r="AX91" s="52"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50">
       <c r="A92" s="36" t="s">
         <v>87</v>
       </c>
@@ -16125,7 +16168,7 @@
       </c>
       <c r="AX92" s="52"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50">
       <c r="A93" s="36" t="s">
         <v>88</v>
       </c>
@@ -16275,7 +16318,7 @@
       </c>
       <c r="AX93" s="52"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50">
       <c r="A94" s="36" t="s">
         <v>89</v>
       </c>
@@ -16425,7 +16468,7 @@
       </c>
       <c r="AX94" s="52"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50">
       <c r="A95" s="36" t="s">
         <v>90</v>
       </c>
@@ -16575,7 +16618,7 @@
       </c>
       <c r="AX95" s="52"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50">
       <c r="A96" s="36" t="s">
         <v>91</v>
       </c>
@@ -16725,7 +16768,7 @@
       </c>
       <c r="AX96" s="52"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50">
       <c r="A97" s="36" t="s">
         <v>92</v>
       </c>
@@ -16875,7 +16918,7 @@
       </c>
       <c r="AX97" s="52"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50">
       <c r="A98" s="36" t="s">
         <v>93</v>
       </c>
@@ -17025,7 +17068,7 @@
       </c>
       <c r="AX98" s="52"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50">
       <c r="A99" s="36" t="s">
         <v>94</v>
       </c>
@@ -17175,7 +17218,7 @@
       </c>
       <c r="AX99" s="52"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50">
       <c r="A100" s="36" t="s">
         <v>95</v>
       </c>
@@ -17325,7 +17368,7 @@
       </c>
       <c r="AX100" s="52"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50">
       <c r="A101" s="36" t="s">
         <v>96</v>
       </c>
@@ -17475,7 +17518,7 @@
       </c>
       <c r="AX101" s="52"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50">
       <c r="A102" s="36" t="s">
         <v>97</v>
       </c>
@@ -17625,7 +17668,7 @@
       </c>
       <c r="AX102" s="52"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50">
       <c r="A103" s="36" t="s">
         <v>98</v>
       </c>
@@ -17775,7 +17818,7 @@
       </c>
       <c r="AX103" s="52"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50">
       <c r="A104" s="36" t="s">
         <v>99</v>
       </c>
@@ -17925,7 +17968,7 @@
       </c>
       <c r="AX104" s="52"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50">
       <c r="A105" s="36" t="s">
         <v>100</v>
       </c>
@@ -18075,7 +18118,7 @@
       </c>
       <c r="AX105" s="52"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50">
       <c r="A106" s="36" t="s">
         <v>101</v>
       </c>
@@ -18225,7 +18268,7 @@
       </c>
       <c r="AX106" s="52"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50">
       <c r="A107" s="36" t="s">
         <v>102</v>
       </c>
@@ -18375,7 +18418,7 @@
       </c>
       <c r="AX107" s="52"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50">
       <c r="A108" s="36" t="s">
         <v>103</v>
       </c>
@@ -18525,7 +18568,7 @@
       </c>
       <c r="AX108" s="52"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50">
       <c r="A109" s="36" t="s">
         <v>104</v>
       </c>
@@ -18675,7 +18718,7 @@
       </c>
       <c r="AX109" s="52"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50">
       <c r="A110" s="36" t="s">
         <v>105</v>
       </c>
@@ -18825,7 +18868,7 @@
       </c>
       <c r="AX110" s="52"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50">
       <c r="A111" s="36" t="s">
         <v>106</v>
       </c>
@@ -18975,7 +19018,7 @@
       </c>
       <c r="AX111" s="52"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50">
       <c r="A112" s="36" t="s">
         <v>107</v>
       </c>
@@ -19125,7 +19168,7 @@
       </c>
       <c r="AX112" s="52"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50">
       <c r="A113" s="36" t="s">
         <v>108</v>
       </c>
@@ -19275,7 +19318,7 @@
       </c>
       <c r="AX113" s="52"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50">
       <c r="A114" s="36" t="s">
         <v>109</v>
       </c>
@@ -19425,7 +19468,7 @@
       </c>
       <c r="AX114" s="52"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50">
       <c r="A115" s="36" t="s">
         <v>111</v>
       </c>
@@ -19575,7 +19618,7 @@
       </c>
       <c r="AX115" s="52"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50">
       <c r="A116" s="36" t="s">
         <v>112</v>
       </c>
@@ -19725,7 +19768,7 @@
       </c>
       <c r="AX116" s="52"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50">
       <c r="A117" s="36" t="s">
         <v>113</v>
       </c>
@@ -19875,7 +19918,7 @@
       </c>
       <c r="AX117" s="52"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50">
       <c r="A118" s="36" t="s">
         <v>114</v>
       </c>
@@ -20025,7 +20068,7 @@
       </c>
       <c r="AX118" s="52"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50">
       <c r="A119" s="36" t="s">
         <v>115</v>
       </c>
@@ -20175,7 +20218,7 @@
       </c>
       <c r="AX119" s="52"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50">
       <c r="A120" s="36" t="s">
         <v>116</v>
       </c>
@@ -20325,7 +20368,7 @@
       </c>
       <c r="AX120" s="52"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50">
       <c r="A121" s="36" t="s">
         <v>117</v>
       </c>
@@ -20475,7 +20518,7 @@
       </c>
       <c r="AX121" s="52"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50">
       <c r="A122" s="36" t="s">
         <v>118</v>
       </c>
@@ -20625,7 +20668,7 @@
       </c>
       <c r="AX122" s="52"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50">
       <c r="A123" s="36" t="s">
         <v>119</v>
       </c>
@@ -20775,7 +20818,7 @@
       </c>
       <c r="AX123" s="52"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50">
       <c r="A124" s="36" t="s">
         <v>120</v>
       </c>
@@ -20925,7 +20968,7 @@
       </c>
       <c r="AX124" s="52"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50">
       <c r="A125" s="36" t="s">
         <v>121</v>
       </c>
@@ -21075,7 +21118,7 @@
       </c>
       <c r="AX125" s="52"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50">
       <c r="A126" s="36" t="s">
         <v>122</v>
       </c>
@@ -21225,7 +21268,7 @@
       </c>
       <c r="AX126" s="52"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50">
       <c r="A127" s="36" t="s">
         <v>123</v>
       </c>
@@ -21375,7 +21418,7 @@
       </c>
       <c r="AX127" s="52"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50">
       <c r="A128" s="36" t="s">
         <v>124</v>
       </c>
@@ -21525,7 +21568,7 @@
       </c>
       <c r="AX128" s="52"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50">
       <c r="A129" s="36" t="s">
         <v>125</v>
       </c>
@@ -21675,7 +21718,7 @@
       </c>
       <c r="AX129" s="52"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50">
       <c r="A130" s="36" t="s">
         <v>126</v>
       </c>
@@ -21825,7 +21868,7 @@
       </c>
       <c r="AX130" s="52"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50">
       <c r="A131" s="36" t="s">
         <v>172</v>
       </c>
@@ -21975,7 +22018,7 @@
       </c>
       <c r="AX131" s="52"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50">
       <c r="A132" s="36" t="s">
         <v>127</v>
       </c>
@@ -22125,7 +22168,7 @@
       </c>
       <c r="AX132" s="52"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50">
       <c r="A133" s="36" t="s">
         <v>128</v>
       </c>
@@ -22275,7 +22318,7 @@
       </c>
       <c r="AX133" s="52"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50">
       <c r="A134" s="36" t="s">
         <v>129</v>
       </c>
@@ -22425,7 +22468,7 @@
       </c>
       <c r="AX134" s="52"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50">
       <c r="A135" s="36" t="s">
         <v>130</v>
       </c>
@@ -22575,7 +22618,7 @@
       </c>
       <c r="AX135" s="52"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50">
       <c r="A136" s="36" t="s">
         <v>132</v>
       </c>
@@ -22725,7 +22768,7 @@
       </c>
       <c r="AX136" s="52"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50">
       <c r="A137" s="36" t="s">
         <v>133</v>
       </c>
@@ -22875,7 +22918,7 @@
       </c>
       <c r="AX137" s="52"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50">
       <c r="A138" s="36" t="s">
         <v>134</v>
       </c>
@@ -23025,7 +23068,7 @@
       </c>
       <c r="AX138" s="52"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50">
       <c r="A139" s="36" t="s">
         <v>135</v>
       </c>
@@ -23175,7 +23218,7 @@
       </c>
       <c r="AX139" s="52"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50">
       <c r="A140" s="36" t="s">
         <v>136</v>
       </c>
@@ -23325,7 +23368,7 @@
       </c>
       <c r="AX140" s="52"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50">
       <c r="A141" s="36" t="s">
         <v>137</v>
       </c>
@@ -23475,7 +23518,7 @@
       </c>
       <c r="AX141" s="52"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50">
       <c r="A142" s="37" t="s">
         <v>138</v>
       </c>
@@ -23625,7 +23668,7 @@
       </c>
       <c r="AX142" s="52"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50">
       <c r="A143" s="36" t="s">
         <v>139</v>
       </c>
@@ -23775,7 +23818,7 @@
       </c>
       <c r="AX143" s="52"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50">
       <c r="A144" s="36" t="s">
         <v>140</v>
       </c>
@@ -23925,7 +23968,7 @@
       </c>
       <c r="AX144" s="52"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50">
       <c r="A145" s="36" t="s">
         <v>141</v>
       </c>
@@ -24075,7 +24118,7 @@
       </c>
       <c r="AX145" s="52"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50">
       <c r="A146" s="36" t="s">
         <v>142</v>
       </c>
@@ -24225,7 +24268,7 @@
       </c>
       <c r="AX146" s="52"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50">
       <c r="A147" s="36" t="s">
         <v>143</v>
       </c>
@@ -24375,7 +24418,7 @@
       </c>
       <c r="AX147" s="52"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50">
       <c r="A148" s="36" t="s">
         <v>144</v>
       </c>
@@ -24525,7 +24568,7 @@
       </c>
       <c r="AX148" s="52"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50">
       <c r="A149" s="36" t="s">
         <v>145</v>
       </c>
@@ -24675,7 +24718,7 @@
       </c>
       <c r="AX149" s="52"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50">
       <c r="A150" s="36" t="s">
         <v>146</v>
       </c>
@@ -24825,7 +24868,7 @@
       </c>
       <c r="AX150" s="52"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50">
       <c r="A151" s="36" t="s">
         <v>147</v>
       </c>
@@ -24975,7 +25018,7 @@
       </c>
       <c r="AX151" s="52"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50">
       <c r="A152" s="36" t="s">
         <v>148</v>
       </c>
@@ -25125,7 +25168,7 @@
       </c>
       <c r="AX152" s="52"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50">
       <c r="A153" s="36" t="s">
         <v>149</v>
       </c>
@@ -25275,7 +25318,7 @@
       </c>
       <c r="AX153" s="52"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50">
       <c r="A154" s="36" t="s">
         <v>150</v>
       </c>
@@ -25425,7 +25468,7 @@
       </c>
       <c r="AX154" s="52"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50">
       <c r="A155" s="36" t="s">
         <v>173</v>
       </c>
@@ -25575,7 +25618,7 @@
       </c>
       <c r="AX155" s="52"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50">
       <c r="A156" s="36" t="s">
         <v>151</v>
       </c>
@@ -25725,7 +25768,7 @@
       </c>
       <c r="AX156" s="52"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50">
       <c r="A157" s="36" t="s">
         <v>152</v>
       </c>
@@ -25875,7 +25918,7 @@
       </c>
       <c r="AX157" s="52"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50">
       <c r="A158" s="36" t="s">
         <v>153</v>
       </c>
@@ -26025,7 +26068,7 @@
       </c>
       <c r="AX158" s="52"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50">
       <c r="A159" s="36" t="s">
         <v>154</v>
       </c>
@@ -26175,7 +26218,7 @@
       </c>
       <c r="AX159" s="52"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50">
       <c r="A160" s="36" t="s">
         <v>155</v>
       </c>
@@ -26325,7 +26368,7 @@
       </c>
       <c r="AX160" s="52"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50">
       <c r="A161" s="36" t="s">
         <v>156</v>
       </c>
@@ -26475,7 +26518,7 @@
       </c>
       <c r="AX161" s="52"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50">
       <c r="A162" s="36" t="s">
         <v>157</v>
       </c>
@@ -26625,7 +26668,7 @@
       </c>
       <c r="AX162" s="52"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50">
       <c r="A163" s="36" t="s">
         <v>158</v>
       </c>
@@ -26775,7 +26818,7 @@
       </c>
       <c r="AX163" s="52"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50">
       <c r="A164" s="36" t="s">
         <v>159</v>
       </c>
@@ -26925,7 +26968,7 @@
       </c>
       <c r="AX164" s="52"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50">
       <c r="A165" s="36" t="s">
         <v>160</v>
       </c>
@@ -27075,7 +27118,7 @@
       </c>
       <c r="AX165" s="52"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50">
       <c r="A166" s="37" t="s">
         <v>161</v>
       </c>
@@ -27225,7 +27268,7 @@
       </c>
       <c r="AX166" s="52"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50">
       <c r="A167" s="36" t="s">
         <v>162</v>
       </c>
@@ -27375,7 +27418,7 @@
       </c>
       <c r="AX167" s="52"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50">
       <c r="A168" s="36" t="s">
         <v>174</v>
       </c>
@@ -27525,7 +27568,7 @@
       </c>
       <c r="AX168" s="52"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50">
       <c r="A169" s="36" t="s">
         <v>176</v>
       </c>
@@ -27675,7 +27718,7 @@
       </c>
       <c r="AX169" s="52"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50">
       <c r="A170" s="36" t="s">
         <v>163</v>
       </c>
@@ -27825,7 +27868,7 @@
       </c>
       <c r="AX170" s="52"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50">
       <c r="A171" s="36" t="s">
         <v>164</v>
       </c>
@@ -27975,7 +28018,7 @@
       </c>
       <c r="AX171" s="52"/>
     </row>
-    <row r="172" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:50" ht="16" thickBot="1">
       <c r="A172" s="70" t="s">
         <v>175</v>
       </c>
@@ -28125,7 +28168,7 @@
       </c>
       <c r="AX172" s="52"/>
     </row>
-    <row r="174" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50" ht="16">
       <c r="A174" s="2" t="s">
         <v>165</v>
       </c>
@@ -28133,38 +28176,53 @@
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="81" t="s">
+    <row r="175" spans="1:50" ht="15" customHeight="1">
+      <c r="A175" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B175" s="81"/>
-      <c r="C175" s="81"/>
-      <c r="D175" s="81"/>
-      <c r="E175" s="81"/>
-      <c r="F175" s="81"/>
-      <c r="G175" s="81"/>
-      <c r="H175" s="81"/>
-      <c r="I175" s="81"/>
+      <c r="B175" s="84"/>
+      <c r="C175" s="84"/>
+      <c r="D175" s="84"/>
+      <c r="E175" s="84"/>
+      <c r="F175" s="84"/>
+      <c r="G175" s="84"/>
+      <c r="H175" s="84"/>
+      <c r="I175" s="84"/>
     </row>
-    <row r="176" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="80" t="s">
+    <row r="176" spans="1:50" ht="15" customHeight="1">
+      <c r="A176" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="B176" s="80"/>
-      <c r="C176" s="80"/>
-      <c r="D176" s="80"/>
-      <c r="E176" s="80"/>
-      <c r="F176" s="80"/>
-      <c r="G176" s="80"/>
-      <c r="H176" s="80"/>
-      <c r="I176" s="80"/>
-      <c r="J176" s="80"/>
-      <c r="K176" s="80"/>
-      <c r="L176" s="80"/>
-      <c r="M176" s="80"/>
+      <c r="B176" s="83"/>
+      <c r="C176" s="83"/>
+      <c r="D176" s="83"/>
+      <c r="E176" s="83"/>
+      <c r="F176" s="83"/>
+      <c r="G176" s="83"/>
+      <c r="H176" s="83"/>
+      <c r="I176" s="83"/>
+      <c r="J176" s="83"/>
+      <c r="K176" s="83"/>
+      <c r="L176" s="83"/>
+      <c r="M176" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="AL5:AW5"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="A176:M176"/>
+    <mergeCell ref="A175:I175"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="A5:A7"/>
@@ -28175,21 +28233,6 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A176:M176"/>
-    <mergeCell ref="A175:I175"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Z5:AK5"/>
-    <mergeCell ref="AL5:AW5"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -28197,233 +28240,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX178"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="5" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="12" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="5" customWidth="1"/>
-    <col min="11" max="13" width="10.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="5" customWidth="1"/>
-    <col min="17" max="19" width="10.28515625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="5" customWidth="1"/>
+    <col min="11" max="13" width="10.33203125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="5" customWidth="1"/>
+    <col min="17" max="19" width="10.33203125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="5" customWidth="1"/>
     <col min="22" max="22" width="12" style="5" customWidth="1"/>
-    <col min="23" max="25" width="10.28515625" style="5" customWidth="1"/>
+    <col min="23" max="25" width="10.33203125" style="5" customWidth="1"/>
     <col min="26" max="26" width="13" style="5" customWidth="1"/>
     <col min="27" max="27" width="12" style="5" customWidth="1"/>
     <col min="28" max="28" width="13" style="5" customWidth="1"/>
-    <col min="29" max="31" width="10.28515625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" style="5" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" style="5" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" style="5" customWidth="1"/>
-    <col min="35" max="37" width="10.28515625" style="5" customWidth="1"/>
-    <col min="38" max="38" width="12.85546875" style="5" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" style="5" customWidth="1"/>
-    <col min="40" max="40" width="12.140625" style="5" customWidth="1"/>
-    <col min="41" max="43" width="10.28515625" style="5" customWidth="1"/>
-    <col min="44" max="45" width="11.85546875" style="5" customWidth="1"/>
-    <col min="46" max="46" width="12.140625" style="5" customWidth="1"/>
-    <col min="47" max="49" width="10.28515625" style="5" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="5"/>
+    <col min="29" max="31" width="10.33203125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="5" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" style="5" customWidth="1"/>
+    <col min="35" max="37" width="10.33203125" style="5" customWidth="1"/>
+    <col min="38" max="38" width="12.83203125" style="5" customWidth="1"/>
+    <col min="39" max="39" width="12.5" style="5" customWidth="1"/>
+    <col min="40" max="40" width="12.1640625" style="5" customWidth="1"/>
+    <col min="41" max="43" width="10.33203125" style="5" customWidth="1"/>
+    <col min="44" max="45" width="11.83203125" style="5" customWidth="1"/>
+    <col min="46" max="46" width="12.1640625" style="5" customWidth="1"/>
+    <col min="47" max="49" width="10.33203125" style="5" customWidth="1"/>
+    <col min="50" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:50" ht="34.5" customHeight="1">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="12.75" customHeight="1">
       <c r="A2" s="49"/>
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+    <row r="3" spans="1:50" ht="16">
+      <c r="A3" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
-    <row r="4" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" ht="16" thickBot="1">
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:50" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="87" t="s">
+    <row r="5" spans="1:50" ht="24" customHeight="1" thickBot="1">
+      <c r="A5" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="74" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="87" t="s">
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="87" t="s">
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="89"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91"/>
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91"/>
+      <c r="AV5" s="91"/>
+      <c r="AW5" s="92"/>
     </row>
-    <row r="6" spans="1:50" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="1:50" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="88"/>
+      <c r="B6" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="75" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="75" t="s">
+      <c r="O6" s="72"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="79" t="s">
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="79" t="s">
+      <c r="U6" s="72"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="75" t="s">
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="79" t="s">
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="79" t="s">
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="77"/>
-      <c r="AO6" s="75" t="s">
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="79" t="s">
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="77"/>
-      <c r="AU6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="78"/>
+      <c r="AS6" s="72"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="72"/>
+      <c r="AW6" s="73"/>
     </row>
-    <row r="7" spans="1:50" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
+    <row r="7" spans="1:50" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A7" s="89"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
@@ -28569,7 +28612,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="16" thickBot="1">
       <c r="A8" s="50" t="s">
         <v>178</v>
       </c>
@@ -28718,7 +28761,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50">
       <c r="A9" s="43" t="s">
         <v>6</v>
       </c>
@@ -28868,7 +28911,7 @@
       </c>
       <c r="AX9" s="52"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50">
       <c r="A10" s="43" t="s">
         <v>7</v>
       </c>
@@ -29018,7 +29061,7 @@
       </c>
       <c r="AX10" s="52"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50">
       <c r="A11" s="43" t="s">
         <v>8</v>
       </c>
@@ -29168,7 +29211,7 @@
       </c>
       <c r="AX11" s="52"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50">
       <c r="A12" s="43" t="s">
         <v>9</v>
       </c>
@@ -29318,7 +29361,7 @@
       </c>
       <c r="AX12" s="52"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50">
       <c r="A13" s="43" t="s">
         <v>10</v>
       </c>
@@ -29468,7 +29511,7 @@
       </c>
       <c r="AX13" s="52"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50">
       <c r="A14" s="43" t="s">
         <v>11</v>
       </c>
@@ -29618,7 +29661,7 @@
       </c>
       <c r="AX14" s="52"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50">
       <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
@@ -29768,7 +29811,7 @@
       </c>
       <c r="AX15" s="52"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50">
       <c r="A16" s="43" t="s">
         <v>13</v>
       </c>
@@ -29918,7 +29961,7 @@
       </c>
       <c r="AX16" s="52"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50">
       <c r="A17" s="43" t="s">
         <v>14</v>
       </c>
@@ -30068,7 +30111,7 @@
       </c>
       <c r="AX17" s="52"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50">
       <c r="A18" s="43" t="s">
         <v>15</v>
       </c>
@@ -30218,7 +30261,7 @@
       </c>
       <c r="AX18" s="52"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50">
       <c r="A19" s="43" t="s">
         <v>16</v>
       </c>
@@ -30368,7 +30411,7 @@
       </c>
       <c r="AX19" s="52"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50">
       <c r="A20" s="43" t="s">
         <v>17</v>
       </c>
@@ -30518,7 +30561,7 @@
       </c>
       <c r="AX20" s="52"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50">
       <c r="A21" s="43" t="s">
         <v>18</v>
       </c>
@@ -30668,7 +30711,7 @@
       </c>
       <c r="AX21" s="52"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50">
       <c r="A22" s="43" t="s">
         <v>19</v>
       </c>
@@ -30818,7 +30861,7 @@
       </c>
       <c r="AX22" s="52"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50">
       <c r="A23" s="43" t="s">
         <v>20</v>
       </c>
@@ -30968,7 +31011,7 @@
       </c>
       <c r="AX23" s="52"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50">
       <c r="A24" s="43" t="s">
         <v>21</v>
       </c>
@@ -31118,7 +31161,7 @@
       </c>
       <c r="AX24" s="52"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50">
       <c r="A25" s="43" t="s">
         <v>22</v>
       </c>
@@ -31268,7 +31311,7 @@
       </c>
       <c r="AX25" s="52"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50">
       <c r="A26" s="43" t="s">
         <v>23</v>
       </c>
@@ -31418,7 +31461,7 @@
       </c>
       <c r="AX26" s="52"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50">
       <c r="A27" s="43" t="s">
         <v>24</v>
       </c>
@@ -31568,7 +31611,7 @@
       </c>
       <c r="AX27" s="52"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50">
       <c r="A28" s="43" t="s">
         <v>168</v>
       </c>
@@ -31718,7 +31761,7 @@
       </c>
       <c r="AX28" s="52"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50">
       <c r="A29" s="43" t="s">
         <v>25</v>
       </c>
@@ -31868,7 +31911,7 @@
       </c>
       <c r="AX29" s="52"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50">
       <c r="A30" s="43" t="s">
         <v>26</v>
       </c>
@@ -32018,7 +32061,7 @@
       </c>
       <c r="AX30" s="52"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50">
       <c r="A31" s="43" t="s">
         <v>169</v>
       </c>
@@ -32168,7 +32211,7 @@
       </c>
       <c r="AX31" s="52"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50">
       <c r="A32" s="43" t="s">
         <v>27</v>
       </c>
@@ -32318,7 +32361,7 @@
       </c>
       <c r="AX32" s="52"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50">
       <c r="A33" s="51" t="s">
         <v>170</v>
       </c>
@@ -32468,7 +32511,7 @@
       </c>
       <c r="AX33" s="52"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50">
       <c r="A34" s="51" t="s">
         <v>28</v>
       </c>
@@ -32618,7 +32661,7 @@
       </c>
       <c r="AX34" s="52"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50">
       <c r="A35" s="51" t="s">
         <v>29</v>
       </c>
@@ -32768,7 +32811,7 @@
       </c>
       <c r="AX35" s="52"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50">
       <c r="A36" s="51" t="s">
         <v>30</v>
       </c>
@@ -32918,7 +32961,7 @@
       </c>
       <c r="AX36" s="52"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50">
       <c r="A37" s="51" t="s">
         <v>31</v>
       </c>
@@ -33068,7 +33111,7 @@
       </c>
       <c r="AX37" s="52"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50">
       <c r="A38" s="51" t="s">
         <v>32</v>
       </c>
@@ -33218,7 +33261,7 @@
       </c>
       <c r="AX38" s="52"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50">
       <c r="A39" s="51" t="s">
         <v>33</v>
       </c>
@@ -33368,7 +33411,7 @@
       </c>
       <c r="AX39" s="52"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:50">
       <c r="A40" s="51" t="s">
         <v>34</v>
       </c>
@@ -33518,7 +33561,7 @@
       </c>
       <c r="AX40" s="52"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50">
       <c r="A41" s="51" t="s">
         <v>35</v>
       </c>
@@ -33668,7 +33711,7 @@
       </c>
       <c r="AX41" s="52"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50">
       <c r="A42" s="51" t="s">
         <v>36</v>
       </c>
@@ -33818,7 +33861,7 @@
       </c>
       <c r="AX42" s="52"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50">
       <c r="A43" s="51" t="s">
         <v>37</v>
       </c>
@@ -33968,7 +34011,7 @@
       </c>
       <c r="AX43" s="52"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50">
       <c r="A44" s="51" t="s">
         <v>38</v>
       </c>
@@ -34118,7 +34161,7 @@
       </c>
       <c r="AX44" s="52"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:50">
       <c r="A45" s="51" t="s">
         <v>39</v>
       </c>
@@ -34268,7 +34311,7 @@
       </c>
       <c r="AX45" s="52"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:50">
       <c r="A46" s="51" t="s">
         <v>40</v>
       </c>
@@ -34418,7 +34461,7 @@
       </c>
       <c r="AX46" s="52"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50">
       <c r="A47" s="51" t="s">
         <v>42</v>
       </c>
@@ -34568,7 +34611,7 @@
       </c>
       <c r="AX47" s="52"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50">
       <c r="A48" s="51" t="s">
         <v>43</v>
       </c>
@@ -34718,7 +34761,7 @@
       </c>
       <c r="AX48" s="52"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50">
       <c r="A49" s="51" t="s">
         <v>44</v>
       </c>
@@ -34868,7 +34911,7 @@
       </c>
       <c r="AX49" s="52"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50">
       <c r="A50" s="51" t="s">
         <v>45</v>
       </c>
@@ -35018,7 +35061,7 @@
       </c>
       <c r="AX50" s="52"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50">
       <c r="A51" s="51" t="s">
         <v>46</v>
       </c>
@@ -35168,7 +35211,7 @@
       </c>
       <c r="AX51" s="52"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50">
       <c r="A52" s="51" t="s">
         <v>47</v>
       </c>
@@ -35318,7 +35361,7 @@
       </c>
       <c r="AX52" s="52"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50">
       <c r="A53" s="51" t="s">
         <v>48</v>
       </c>
@@ -35468,7 +35511,7 @@
       </c>
       <c r="AX53" s="52"/>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50">
       <c r="A54" s="51" t="s">
         <v>49</v>
       </c>
@@ -35618,7 +35661,7 @@
       </c>
       <c r="AX54" s="52"/>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50">
       <c r="A55" s="51" t="s">
         <v>50</v>
       </c>
@@ -35768,7 +35811,7 @@
       </c>
       <c r="AX55" s="52"/>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50">
       <c r="A56" s="51" t="s">
         <v>171</v>
       </c>
@@ -35918,7 +35961,7 @@
       </c>
       <c r="AX56" s="52"/>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50">
       <c r="A57" s="51" t="s">
         <v>51</v>
       </c>
@@ -36068,7 +36111,7 @@
       </c>
       <c r="AX57" s="52"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50">
       <c r="A58" s="51" t="s">
         <v>52</v>
       </c>
@@ -36218,7 +36261,7 @@
       </c>
       <c r="AX58" s="52"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50">
       <c r="A59" s="51" t="s">
         <v>53</v>
       </c>
@@ -36368,7 +36411,7 @@
       </c>
       <c r="AX59" s="52"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50">
       <c r="A60" s="51" t="s">
         <v>54</v>
       </c>
@@ -36518,7 +36561,7 @@
       </c>
       <c r="AX60" s="52"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50">
       <c r="A61" s="51" t="s">
         <v>55</v>
       </c>
@@ -36668,7 +36711,7 @@
       </c>
       <c r="AX61" s="52"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50">
       <c r="A62" s="51" t="s">
         <v>56</v>
       </c>
@@ -36818,7 +36861,7 @@
       </c>
       <c r="AX62" s="52"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50">
       <c r="A63" s="51" t="s">
         <v>57</v>
       </c>
@@ -36968,7 +37011,7 @@
       </c>
       <c r="AX63" s="52"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50">
       <c r="A64" s="51" t="s">
         <v>58</v>
       </c>
@@ -37118,7 +37161,7 @@
       </c>
       <c r="AX64" s="52"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:50">
       <c r="A65" s="51" t="s">
         <v>59</v>
       </c>
@@ -37268,7 +37311,7 @@
       </c>
       <c r="AX65" s="52"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:50">
       <c r="A66" s="51" t="s">
         <v>60</v>
       </c>
@@ -37418,7 +37461,7 @@
       </c>
       <c r="AX66" s="52"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:50">
       <c r="A67" s="51" t="s">
         <v>61</v>
       </c>
@@ -37568,7 +37611,7 @@
       </c>
       <c r="AX67" s="52"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:50">
       <c r="A68" s="51" t="s">
         <v>62</v>
       </c>
@@ -37718,7 +37761,7 @@
       </c>
       <c r="AX68" s="52"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:50">
       <c r="A69" s="51" t="s">
         <v>63</v>
       </c>
@@ -37868,7 +37911,7 @@
       </c>
       <c r="AX69" s="52"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:50">
       <c r="A70" s="51" t="s">
         <v>64</v>
       </c>
@@ -38018,7 +38061,7 @@
       </c>
       <c r="AX70" s="52"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:50">
       <c r="A71" s="51" t="s">
         <v>65</v>
       </c>
@@ -38168,7 +38211,7 @@
       </c>
       <c r="AX71" s="52"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:50">
       <c r="A72" s="51" t="s">
         <v>66</v>
       </c>
@@ -38318,7 +38361,7 @@
       </c>
       <c r="AX72" s="52"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:50">
       <c r="A73" s="51" t="s">
         <v>67</v>
       </c>
@@ -38468,7 +38511,7 @@
       </c>
       <c r="AX73" s="52"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:50">
       <c r="A74" s="51" t="s">
         <v>68</v>
       </c>
@@ -38618,7 +38661,7 @@
       </c>
       <c r="AX74" s="52"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:50">
       <c r="A75" s="51" t="s">
         <v>69</v>
       </c>
@@ -38768,7 +38811,7 @@
       </c>
       <c r="AX75" s="52"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:50">
       <c r="A76" s="51" t="s">
         <v>70</v>
       </c>
@@ -38918,7 +38961,7 @@
       </c>
       <c r="AX76" s="52"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:50">
       <c r="A77" s="51" t="s">
         <v>71</v>
       </c>
@@ -39068,7 +39111,7 @@
       </c>
       <c r="AX77" s="52"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:50">
       <c r="A78" s="51" t="s">
         <v>72</v>
       </c>
@@ -39218,7 +39261,7 @@
       </c>
       <c r="AX78" s="52"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:50">
       <c r="A79" s="51" t="s">
         <v>73</v>
       </c>
@@ -39368,7 +39411,7 @@
       </c>
       <c r="AX79" s="52"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:50">
       <c r="A80" s="51" t="s">
         <v>74</v>
       </c>
@@ -39518,7 +39561,7 @@
       </c>
       <c r="AX80" s="52"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:50">
       <c r="A81" s="51" t="s">
         <v>75</v>
       </c>
@@ -39668,7 +39711,7 @@
       </c>
       <c r="AX81" s="52"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:50">
       <c r="A82" s="51" t="s">
         <v>76</v>
       </c>
@@ -39818,7 +39861,7 @@
       </c>
       <c r="AX82" s="52"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:50">
       <c r="A83" s="51" t="s">
         <v>77</v>
       </c>
@@ -39968,7 +40011,7 @@
       </c>
       <c r="AX83" s="52"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:50">
       <c r="A84" s="51" t="s">
         <v>78</v>
       </c>
@@ -40118,7 +40161,7 @@
       </c>
       <c r="AX84" s="52"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:50">
       <c r="A85" s="51" t="s">
         <v>79</v>
       </c>
@@ -40268,7 +40311,7 @@
       </c>
       <c r="AX85" s="52"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:50">
       <c r="A86" s="51" t="s">
         <v>80</v>
       </c>
@@ -40418,7 +40461,7 @@
       </c>
       <c r="AX86" s="52"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:50">
       <c r="A87" s="51" t="s">
         <v>81</v>
       </c>
@@ -40568,7 +40611,7 @@
       </c>
       <c r="AX87" s="52"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:50">
       <c r="A88" s="51" t="s">
         <v>82</v>
       </c>
@@ -40718,7 +40761,7 @@
       </c>
       <c r="AX88" s="52"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:50">
       <c r="A89" s="51" t="s">
         <v>83</v>
       </c>
@@ -40868,7 +40911,7 @@
       </c>
       <c r="AX89" s="52"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:50">
       <c r="A90" s="51" t="s">
         <v>84</v>
       </c>
@@ -41018,7 +41061,7 @@
       </c>
       <c r="AX90" s="52"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:50">
       <c r="A91" s="51" t="s">
         <v>85</v>
       </c>
@@ -41168,7 +41211,7 @@
       </c>
       <c r="AX91" s="52"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:50">
       <c r="A92" s="51" t="s">
         <v>86</v>
       </c>
@@ -41318,7 +41361,7 @@
       </c>
       <c r="AX92" s="52"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:50">
       <c r="A93" s="51" t="s">
         <v>87</v>
       </c>
@@ -41468,7 +41511,7 @@
       </c>
       <c r="AX93" s="52"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:50">
       <c r="A94" s="51" t="s">
         <v>88</v>
       </c>
@@ -41618,7 +41661,7 @@
       </c>
       <c r="AX94" s="52"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:50">
       <c r="A95" s="51" t="s">
         <v>89</v>
       </c>
@@ -41768,7 +41811,7 @@
       </c>
       <c r="AX95" s="52"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:50">
       <c r="A96" s="51" t="s">
         <v>90</v>
       </c>
@@ -41918,7 +41961,7 @@
       </c>
       <c r="AX96" s="52"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:50">
       <c r="A97" s="51" t="s">
         <v>91</v>
       </c>
@@ -42068,7 +42111,7 @@
       </c>
       <c r="AX97" s="52"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:50">
       <c r="A98" s="51" t="s">
         <v>92</v>
       </c>
@@ -42218,7 +42261,7 @@
       </c>
       <c r="AX98" s="52"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:50">
       <c r="A99" s="51" t="s">
         <v>93</v>
       </c>
@@ -42368,7 +42411,7 @@
       </c>
       <c r="AX99" s="52"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:50">
       <c r="A100" s="51" t="s">
         <v>94</v>
       </c>
@@ -42518,7 +42561,7 @@
       </c>
       <c r="AX100" s="52"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50">
       <c r="A101" s="51" t="s">
         <v>95</v>
       </c>
@@ -42668,7 +42711,7 @@
       </c>
       <c r="AX101" s="52"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50">
       <c r="A102" s="51" t="s">
         <v>96</v>
       </c>
@@ -42818,7 +42861,7 @@
       </c>
       <c r="AX102" s="52"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50">
       <c r="A103" s="51" t="s">
         <v>97</v>
       </c>
@@ -42968,7 +43011,7 @@
       </c>
       <c r="AX103" s="52"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50">
       <c r="A104" s="51" t="s">
         <v>98</v>
       </c>
@@ -43118,7 +43161,7 @@
       </c>
       <c r="AX104" s="52"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50">
       <c r="A105" s="51" t="s">
         <v>99</v>
       </c>
@@ -43268,7 +43311,7 @@
       </c>
       <c r="AX105" s="52"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50">
       <c r="A106" s="51" t="s">
         <v>100</v>
       </c>
@@ -43418,7 +43461,7 @@
       </c>
       <c r="AX106" s="52"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50">
       <c r="A107" s="51" t="s">
         <v>101</v>
       </c>
@@ -43568,7 +43611,7 @@
       </c>
       <c r="AX107" s="52"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50">
       <c r="A108" s="51" t="s">
         <v>102</v>
       </c>
@@ -43718,7 +43761,7 @@
       </c>
       <c r="AX108" s="52"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50">
       <c r="A109" s="51" t="s">
         <v>103</v>
       </c>
@@ -43868,7 +43911,7 @@
       </c>
       <c r="AX109" s="52"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50">
       <c r="A110" s="51" t="s">
         <v>104</v>
       </c>
@@ -44018,7 +44061,7 @@
       </c>
       <c r="AX110" s="52"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50">
       <c r="A111" s="51" t="s">
         <v>105</v>
       </c>
@@ -44168,7 +44211,7 @@
       </c>
       <c r="AX111" s="52"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50">
       <c r="A112" s="51" t="s">
         <v>106</v>
       </c>
@@ -44318,7 +44361,7 @@
       </c>
       <c r="AX112" s="52"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:50">
       <c r="A113" s="51" t="s">
         <v>107</v>
       </c>
@@ -44468,7 +44511,7 @@
       </c>
       <c r="AX113" s="52"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:50">
       <c r="A114" s="51" t="s">
         <v>108</v>
       </c>
@@ -44618,7 +44661,7 @@
       </c>
       <c r="AX114" s="52"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:50">
       <c r="A115" s="51" t="s">
         <v>109</v>
       </c>
@@ -44768,7 +44811,7 @@
       </c>
       <c r="AX115" s="52"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:50">
       <c r="A116" s="51" t="s">
         <v>110</v>
       </c>
@@ -44918,7 +44961,7 @@
       </c>
       <c r="AX116" s="52"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:50">
       <c r="A117" s="51" t="s">
         <v>111</v>
       </c>
@@ -45068,7 +45111,7 @@
       </c>
       <c r="AX117" s="52"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:50">
       <c r="A118" s="51" t="s">
         <v>112</v>
       </c>
@@ -45218,7 +45261,7 @@
       </c>
       <c r="AX118" s="52"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:50">
       <c r="A119" s="51" t="s">
         <v>113</v>
       </c>
@@ -45368,7 +45411,7 @@
       </c>
       <c r="AX119" s="52"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:50">
       <c r="A120" s="51" t="s">
         <v>114</v>
       </c>
@@ -45518,7 +45561,7 @@
       </c>
       <c r="AX120" s="52"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:50">
       <c r="A121" s="51" t="s">
         <v>115</v>
       </c>
@@ -45668,7 +45711,7 @@
       </c>
       <c r="AX121" s="52"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:50">
       <c r="A122" s="51" t="s">
         <v>116</v>
       </c>
@@ -45818,7 +45861,7 @@
       </c>
       <c r="AX122" s="52"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:50">
       <c r="A123" s="51" t="s">
         <v>117</v>
       </c>
@@ -45968,7 +46011,7 @@
       </c>
       <c r="AX123" s="52"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:50">
       <c r="A124" s="51" t="s">
         <v>118</v>
       </c>
@@ -46118,7 +46161,7 @@
       </c>
       <c r="AX124" s="52"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:50">
       <c r="A125" s="51" t="s">
         <v>119</v>
       </c>
@@ -46268,7 +46311,7 @@
       </c>
       <c r="AX125" s="52"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:50">
       <c r="A126" s="51" t="s">
         <v>120</v>
       </c>
@@ -46418,7 +46461,7 @@
       </c>
       <c r="AX126" s="52"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:50">
       <c r="A127" s="51" t="s">
         <v>121</v>
       </c>
@@ -46568,7 +46611,7 @@
       </c>
       <c r="AX127" s="52"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:50">
       <c r="A128" s="51" t="s">
         <v>122</v>
       </c>
@@ -46718,7 +46761,7 @@
       </c>
       <c r="AX128" s="52"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:50">
       <c r="A129" s="51" t="s">
         <v>123</v>
       </c>
@@ -46868,7 +46911,7 @@
       </c>
       <c r="AX129" s="52"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:50">
       <c r="A130" s="51" t="s">
         <v>124</v>
       </c>
@@ -47018,7 +47061,7 @@
       </c>
       <c r="AX130" s="52"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:50">
       <c r="A131" s="51" t="s">
         <v>125</v>
       </c>
@@ -47168,7 +47211,7 @@
       </c>
       <c r="AX131" s="52"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:50">
       <c r="A132" s="51" t="s">
         <v>126</v>
       </c>
@@ -47318,7 +47361,7 @@
       </c>
       <c r="AX132" s="52"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:50">
       <c r="A133" s="51" t="s">
         <v>172</v>
       </c>
@@ -47468,7 +47511,7 @@
       </c>
       <c r="AX133" s="52"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:50">
       <c r="A134" s="51" t="s">
         <v>127</v>
       </c>
@@ -47618,7 +47661,7 @@
       </c>
       <c r="AX134" s="52"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:50">
       <c r="A135" s="51" t="s">
         <v>128</v>
       </c>
@@ -47768,7 +47811,7 @@
       </c>
       <c r="AX135" s="52"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:50">
       <c r="A136" s="51" t="s">
         <v>129</v>
       </c>
@@ -47918,7 +47961,7 @@
       </c>
       <c r="AX136" s="52"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:50">
       <c r="A137" s="51" t="s">
         <v>130</v>
       </c>
@@ -48068,7 +48111,7 @@
       </c>
       <c r="AX137" s="52"/>
     </row>
-    <row r="138" spans="1:50" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:50" s="59" customFormat="1">
       <c r="A138" s="53" t="s">
         <v>131</v>
       </c>
@@ -48218,7 +48261,7 @@
       </c>
       <c r="AX138" s="52"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:50">
       <c r="A139" s="51" t="s">
         <v>132</v>
       </c>
@@ -48368,7 +48411,7 @@
       </c>
       <c r="AX139" s="52"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:50">
       <c r="A140" s="51" t="s">
         <v>133</v>
       </c>
@@ -48518,7 +48561,7 @@
       </c>
       <c r="AX140" s="52"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:50">
       <c r="A141" s="51" t="s">
         <v>134</v>
       </c>
@@ -48668,7 +48711,7 @@
       </c>
       <c r="AX141" s="52"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:50">
       <c r="A142" s="51" t="s">
         <v>135</v>
       </c>
@@ -48818,7 +48861,7 @@
       </c>
       <c r="AX142" s="52"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:50">
       <c r="A143" s="51" t="s">
         <v>136</v>
       </c>
@@ -48968,7 +49011,7 @@
       </c>
       <c r="AX143" s="52"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:50">
       <c r="A144" s="51" t="s">
         <v>137</v>
       </c>
@@ -49118,7 +49161,7 @@
       </c>
       <c r="AX144" s="52"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:50">
       <c r="A145" s="51" t="s">
         <v>138</v>
       </c>
@@ -49268,7 +49311,7 @@
       </c>
       <c r="AX145" s="52"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:50">
       <c r="A146" s="51" t="s">
         <v>139</v>
       </c>
@@ -49418,7 +49461,7 @@
       </c>
       <c r="AX146" s="52"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:50">
       <c r="A147" s="51" t="s">
         <v>140</v>
       </c>
@@ -49568,7 +49611,7 @@
       </c>
       <c r="AX147" s="52"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:50">
       <c r="A148" s="51" t="s">
         <v>141</v>
       </c>
@@ -49718,7 +49761,7 @@
       </c>
       <c r="AX148" s="52"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:50">
       <c r="A149" s="51" t="s">
         <v>142</v>
       </c>
@@ -49868,7 +49911,7 @@
       </c>
       <c r="AX149" s="52"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:50">
       <c r="A150" s="51" t="s">
         <v>143</v>
       </c>
@@ -50018,7 +50061,7 @@
       </c>
       <c r="AX150" s="52"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:50">
       <c r="A151" s="51" t="s">
         <v>144</v>
       </c>
@@ -50168,7 +50211,7 @@
       </c>
       <c r="AX151" s="52"/>
     </row>
-    <row r="152" spans="1:50" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:50" s="59" customFormat="1">
       <c r="A152" s="53" t="s">
         <v>145</v>
       </c>
@@ -50318,7 +50361,7 @@
       </c>
       <c r="AX152" s="52"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:50">
       <c r="A153" s="51" t="s">
         <v>146</v>
       </c>
@@ -50468,7 +50511,7 @@
       </c>
       <c r="AX153" s="52"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:50">
       <c r="A154" s="51" t="s">
         <v>147</v>
       </c>
@@ -50618,7 +50661,7 @@
       </c>
       <c r="AX154" s="52"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:50">
       <c r="A155" s="51" t="s">
         <v>148</v>
       </c>
@@ -50768,7 +50811,7 @@
       </c>
       <c r="AX155" s="52"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:50">
       <c r="A156" s="51" t="s">
         <v>149</v>
       </c>
@@ -50918,7 +50961,7 @@
       </c>
       <c r="AX156" s="52"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:50">
       <c r="A157" s="51" t="s">
         <v>150</v>
       </c>
@@ -51068,7 +51111,7 @@
       </c>
       <c r="AX157" s="52"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:50">
       <c r="A158" s="51" t="s">
         <v>173</v>
       </c>
@@ -51218,7 +51261,7 @@
       </c>
       <c r="AX158" s="52"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:50">
       <c r="A159" s="51" t="s">
         <v>151</v>
       </c>
@@ -51368,7 +51411,7 @@
       </c>
       <c r="AX159" s="52"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:50">
       <c r="A160" s="51" t="s">
         <v>152</v>
       </c>
@@ -51518,7 +51561,7 @@
       </c>
       <c r="AX160" s="52"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:50">
       <c r="A161" s="51" t="s">
         <v>153</v>
       </c>
@@ -51668,7 +51711,7 @@
       </c>
       <c r="AX161" s="52"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:50">
       <c r="A162" s="51" t="s">
         <v>154</v>
       </c>
@@ -51818,7 +51861,7 @@
       </c>
       <c r="AX162" s="52"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:50">
       <c r="A163" s="51" t="s">
         <v>155</v>
       </c>
@@ -51968,7 +52011,7 @@
       </c>
       <c r="AX163" s="52"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:50">
       <c r="A164" s="51" t="s">
         <v>156</v>
       </c>
@@ -52118,7 +52161,7 @@
       </c>
       <c r="AX164" s="52"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:50">
       <c r="A165" s="51" t="s">
         <v>157</v>
       </c>
@@ -52268,7 +52311,7 @@
       </c>
       <c r="AX165" s="52"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:50">
       <c r="A166" s="51" t="s">
         <v>158</v>
       </c>
@@ -52418,7 +52461,7 @@
       </c>
       <c r="AX166" s="52"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:50">
       <c r="A167" s="51" t="s">
         <v>159</v>
       </c>
@@ -52568,7 +52611,7 @@
       </c>
       <c r="AX167" s="52"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:50">
       <c r="A168" s="51" t="s">
         <v>160</v>
       </c>
@@ -52718,7 +52761,7 @@
       </c>
       <c r="AX168" s="52"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:50">
       <c r="A169" s="51" t="s">
         <v>161</v>
       </c>
@@ -52868,7 +52911,7 @@
       </c>
       <c r="AX169" s="52"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:50">
       <c r="A170" s="51" t="s">
         <v>162</v>
       </c>
@@ -53018,7 +53061,7 @@
       </c>
       <c r="AX170" s="52"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:50">
       <c r="A171" s="51" t="s">
         <v>174</v>
       </c>
@@ -53168,7 +53211,7 @@
       </c>
       <c r="AX171" s="52"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:50">
       <c r="A172" s="51" t="s">
         <v>176</v>
       </c>
@@ -53318,7 +53361,7 @@
       </c>
       <c r="AX172" s="52"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:50">
       <c r="A173" s="51" t="s">
         <v>163</v>
       </c>
@@ -53468,7 +53511,7 @@
       </c>
       <c r="AX173" s="52"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:50">
       <c r="A174" s="51" t="s">
         <v>164</v>
       </c>
@@ -53618,7 +53661,7 @@
       </c>
       <c r="AX174" s="52"/>
     </row>
-    <row r="175" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:50" ht="16" thickBot="1">
       <c r="A175" s="44" t="s">
         <v>175</v>
       </c>
@@ -53768,7 +53811,7 @@
       </c>
       <c r="AX175" s="52"/>
     </row>
-    <row r="176" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:50" ht="16">
       <c r="A176" s="2" t="s">
         <v>165</v>
       </c>
@@ -53777,40 +53820,50 @@
       <c r="D176" s="3"/>
       <c r="AX176" s="52"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A177" s="81" t="s">
+    <row r="177" spans="1:50">
+      <c r="A177" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B177" s="81"/>
-      <c r="C177" s="81"/>
-      <c r="D177" s="81"/>
-      <c r="E177" s="81"/>
-      <c r="F177" s="81"/>
-      <c r="G177" s="81"/>
-      <c r="H177" s="81"/>
-      <c r="I177" s="81"/>
+      <c r="B177" s="84"/>
+      <c r="C177" s="84"/>
+      <c r="D177" s="84"/>
+      <c r="E177" s="84"/>
+      <c r="F177" s="84"/>
+      <c r="G177" s="84"/>
+      <c r="H177" s="84"/>
+      <c r="I177" s="84"/>
       <c r="AX177" s="52"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A178" s="80" t="s">
+    <row r="178" spans="1:50" ht="16">
+      <c r="A178" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="B178" s="80"/>
-      <c r="C178" s="80"/>
-      <c r="D178" s="80"/>
-      <c r="E178" s="80"/>
-      <c r="F178" s="80"/>
-      <c r="G178" s="80"/>
-      <c r="H178" s="80"/>
-      <c r="I178" s="80"/>
-      <c r="J178" s="80"/>
-      <c r="K178" s="80"/>
-      <c r="L178" s="80"/>
-      <c r="M178" s="80"/>
+      <c r="B178" s="83"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="83"/>
+      <c r="E178" s="83"/>
+      <c r="F178" s="83"/>
+      <c r="G178" s="83"/>
+      <c r="H178" s="83"/>
+      <c r="I178" s="83"/>
+      <c r="J178" s="83"/>
+      <c r="K178" s="83"/>
+      <c r="L178" s="83"/>
+      <c r="M178" s="83"/>
       <c r="AX178" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="N5:Y5"/>
+    <mergeCell ref="A178:M178"/>
+    <mergeCell ref="A177:I177"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="AL6:AN6"/>
     <mergeCell ref="AO6:AQ6"/>
     <mergeCell ref="AR6:AT6"/>
@@ -53826,16 +53879,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Z5:AK5"/>
     <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="N5:Y5"/>
-    <mergeCell ref="A178:M178"/>
-    <mergeCell ref="A177:I177"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="95" orientation="landscape" r:id="rId1"/>
@@ -53846,66 +53889,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" style="5" customWidth="1"/>
     <col min="2" max="4" width="12" style="5" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" style="5" customWidth="1"/>
+    <col min="5" max="7" width="10.33203125" style="5" customWidth="1"/>
     <col min="8" max="10" width="12" style="5" customWidth="1"/>
-    <col min="11" max="13" width="10.28515625" style="5" customWidth="1"/>
+    <col min="11" max="13" width="10.33203125" style="5" customWidth="1"/>
     <col min="14" max="16" width="12" style="5" customWidth="1"/>
-    <col min="17" max="19" width="10.28515625" style="5" customWidth="1"/>
+    <col min="17" max="19" width="10.33203125" style="5" customWidth="1"/>
     <col min="20" max="22" width="12" style="5" customWidth="1"/>
-    <col min="23" max="25" width="10.28515625" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="5"/>
+    <col min="23" max="25" width="10.33203125" style="5" customWidth="1"/>
+    <col min="26" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:26" ht="34.5" customHeight="1">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+    <row r="3" spans="1:26" ht="27.75" customHeight="1">
+      <c r="A3" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="16" thickBot="1">
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="100" t="s">
         <v>1</v>
       </c>
@@ -53938,50 +53981,50 @@
       <c r="X5" s="96"/>
       <c r="Y5" s="97"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="101"/>
       <c r="B6" s="98" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="98"/>
       <c r="D6" s="98"/>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="78"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="72"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="99" t="s">
         <v>177</v>
       </c>
       <c r="O6" s="98"/>
       <c r="P6" s="98"/>
-      <c r="Q6" s="75" t="s">
+      <c r="Q6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="79" t="s">
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="75" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="78"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="73"/>
     </row>
-    <row r="7" spans="1:26" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="36" customHeight="1" thickBot="1">
       <c r="A7" s="102"/>
       <c r="B7" s="27" t="s">
         <v>3</v>
@@ -54056,7 +54099,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="69" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="69" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="29" t="s">
         <v>178</v>
       </c>
@@ -54134,7 +54177,7 @@
       </c>
       <c r="Z8" s="68"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="43" t="s">
         <v>6</v>
       </c>
@@ -54212,7 +54255,7 @@
       </c>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="43" t="s">
         <v>7</v>
       </c>
@@ -54290,7 +54333,7 @@
       </c>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="43" t="s">
         <v>8</v>
       </c>
@@ -54368,7 +54411,7 @@
       </c>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="43" t="s">
         <v>9</v>
       </c>
@@ -54446,7 +54489,7 @@
       </c>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="43" t="s">
         <v>10</v>
       </c>
@@ -54524,7 +54567,7 @@
       </c>
       <c r="Z13" s="6"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="43" t="s">
         <v>11</v>
       </c>
@@ -54602,7 +54645,7 @@
       </c>
       <c r="Z14" s="6"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
@@ -54680,7 +54723,7 @@
       </c>
       <c r="Z15" s="6"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="43" t="s">
         <v>13</v>
       </c>
@@ -54758,7 +54801,7 @@
       </c>
       <c r="Z16" s="6"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="43" t="s">
         <v>14</v>
       </c>
@@ -54836,7 +54879,7 @@
       </c>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="43" t="s">
         <v>15</v>
       </c>
@@ -54914,7 +54957,7 @@
       </c>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="43" t="s">
         <v>16</v>
       </c>
@@ -54992,7 +55035,7 @@
       </c>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="43" t="s">
         <v>17</v>
       </c>
@@ -55070,7 +55113,7 @@
       </c>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="43" t="s">
         <v>18</v>
       </c>
@@ -55148,7 +55191,7 @@
       </c>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="43" t="s">
         <v>19</v>
       </c>
@@ -55226,7 +55269,7 @@
       </c>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="43" t="s">
         <v>20</v>
       </c>
@@ -55304,7 +55347,7 @@
       </c>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="43" t="s">
         <v>21</v>
       </c>
@@ -55382,7 +55425,7 @@
       </c>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="43" t="s">
         <v>22</v>
       </c>
@@ -55460,7 +55503,7 @@
       </c>
       <c r="Z25" s="6"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="43" t="s">
         <v>23</v>
       </c>
@@ -55538,7 +55581,7 @@
       </c>
       <c r="Z26" s="6"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="43" t="s">
         <v>24</v>
       </c>
@@ -55616,7 +55659,7 @@
       </c>
       <c r="Z27" s="6"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="43" t="s">
         <v>168</v>
       </c>
@@ -55694,7 +55737,7 @@
       </c>
       <c r="Z28" s="6"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="43" t="s">
         <v>25</v>
       </c>
@@ -55772,7 +55815,7 @@
       </c>
       <c r="Z29" s="6"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="43" t="s">
         <v>26</v>
       </c>
@@ -55850,7 +55893,7 @@
       </c>
       <c r="Z30" s="6"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="43" t="s">
         <v>169</v>
       </c>
@@ -55928,7 +55971,7 @@
       </c>
       <c r="Z31" s="6"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="43" t="s">
         <v>27</v>
       </c>
@@ -56006,7 +56049,7 @@
       </c>
       <c r="Z32" s="6"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33" s="51" t="s">
         <v>170</v>
       </c>
@@ -56084,7 +56127,7 @@
       </c>
       <c r="Z33" s="6"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34" s="51" t="s">
         <v>28</v>
       </c>
@@ -56162,7 +56205,7 @@
       </c>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35" s="51" t="s">
         <v>29</v>
       </c>
@@ -56240,7 +56283,7 @@
       </c>
       <c r="Z35" s="6"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36" s="51" t="s">
         <v>30</v>
       </c>
@@ -56318,7 +56361,7 @@
       </c>
       <c r="Z36" s="6"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37" s="51" t="s">
         <v>31</v>
       </c>
@@ -56396,7 +56439,7 @@
       </c>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38" s="51" t="s">
         <v>32</v>
       </c>
@@ -56474,7 +56517,7 @@
       </c>
       <c r="Z38" s="6"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="51" t="s">
         <v>33</v>
       </c>
@@ -56552,7 +56595,7 @@
       </c>
       <c r="Z39" s="6"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" s="51" t="s">
         <v>34</v>
       </c>
@@ -56630,7 +56673,7 @@
       </c>
       <c r="Z40" s="6"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41" s="51" t="s">
         <v>35</v>
       </c>
@@ -56708,7 +56751,7 @@
       </c>
       <c r="Z41" s="6"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42" s="51" t="s">
         <v>36</v>
       </c>
@@ -56786,7 +56829,7 @@
       </c>
       <c r="Z42" s="6"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43" s="51" t="s">
         <v>37</v>
       </c>
@@ -56864,7 +56907,7 @@
       </c>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44" s="51" t="s">
         <v>38</v>
       </c>
@@ -56942,7 +56985,7 @@
       </c>
       <c r="Z44" s="6"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45" s="51" t="s">
         <v>39</v>
       </c>
@@ -57020,7 +57063,7 @@
       </c>
       <c r="Z45" s="6"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46" s="51" t="s">
         <v>40</v>
       </c>
@@ -57098,7 +57141,7 @@
       </c>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47" s="51" t="s">
         <v>41</v>
       </c>
@@ -57176,7 +57219,7 @@
       </c>
       <c r="Z47" s="6"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48" s="51" t="s">
         <v>42</v>
       </c>
@@ -57254,7 +57297,7 @@
       </c>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="51" t="s">
         <v>43</v>
       </c>
@@ -57332,7 +57375,7 @@
       </c>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="51" t="s">
         <v>44</v>
       </c>
@@ -57410,7 +57453,7 @@
       </c>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="51" t="s">
         <v>45</v>
       </c>
@@ -57488,7 +57531,7 @@
       </c>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="51" t="s">
         <v>46</v>
       </c>
@@ -57566,7 +57609,7 @@
       </c>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="51" t="s">
         <v>47</v>
       </c>
@@ -57644,7 +57687,7 @@
       </c>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="51" t="s">
         <v>48</v>
       </c>
@@ -57722,7 +57765,7 @@
       </c>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="51" t="s">
         <v>49</v>
       </c>
@@ -57800,7 +57843,7 @@
       </c>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="51" t="s">
         <v>50</v>
       </c>
@@ -57878,7 +57921,7 @@
       </c>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="51" t="s">
         <v>171</v>
       </c>
@@ -57956,7 +57999,7 @@
       </c>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="51" t="s">
         <v>51</v>
       </c>
@@ -58034,7 +58077,7 @@
       </c>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="51" t="s">
         <v>52</v>
       </c>
@@ -58112,7 +58155,7 @@
       </c>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="51" t="s">
         <v>53</v>
       </c>
@@ -58190,7 +58233,7 @@
       </c>
       <c r="Z60" s="6"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="51" t="s">
         <v>54</v>
       </c>
@@ -58268,7 +58311,7 @@
       </c>
       <c r="Z61" s="6"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="51" t="s">
         <v>55</v>
       </c>
@@ -58346,7 +58389,7 @@
       </c>
       <c r="Z62" s="6"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="51" t="s">
         <v>56</v>
       </c>
@@ -58424,7 +58467,7 @@
       </c>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="51" t="s">
         <v>57</v>
       </c>
@@ -58502,7 +58545,7 @@
       </c>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="51" t="s">
         <v>58</v>
       </c>
@@ -58580,7 +58623,7 @@
       </c>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="51" t="s">
         <v>59</v>
       </c>
@@ -58658,7 +58701,7 @@
       </c>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="51" t="s">
         <v>60</v>
       </c>
@@ -58736,7 +58779,7 @@
       </c>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="51" t="s">
         <v>61</v>
       </c>
@@ -58814,7 +58857,7 @@
       </c>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="51" t="s">
         <v>62</v>
       </c>
@@ -58892,7 +58935,7 @@
       </c>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="51" t="s">
         <v>63</v>
       </c>
@@ -58970,7 +59013,7 @@
       </c>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="51" t="s">
         <v>64</v>
       </c>
@@ -59048,7 +59091,7 @@
       </c>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="51" t="s">
         <v>65</v>
       </c>
@@ -59126,7 +59169,7 @@
       </c>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="51" t="s">
         <v>66</v>
       </c>
@@ -59204,7 +59247,7 @@
       </c>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="51" t="s">
         <v>67</v>
       </c>
@@ -59282,7 +59325,7 @@
       </c>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="51" t="s">
         <v>68</v>
       </c>
@@ -59360,7 +59403,7 @@
       </c>
       <c r="Z75" s="6"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="51" t="s">
         <v>69</v>
       </c>
@@ -59438,7 +59481,7 @@
       </c>
       <c r="Z76" s="6"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="51" t="s">
         <v>70</v>
       </c>
@@ -59516,7 +59559,7 @@
       </c>
       <c r="Z77" s="6"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="51" t="s">
         <v>71</v>
       </c>
@@ -59594,7 +59637,7 @@
       </c>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="51" t="s">
         <v>72</v>
       </c>
@@ -59672,7 +59715,7 @@
       </c>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="51" t="s">
         <v>73</v>
       </c>
@@ -59750,7 +59793,7 @@
       </c>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="51" t="s">
         <v>74</v>
       </c>
@@ -59828,7 +59871,7 @@
       </c>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="51" t="s">
         <v>75</v>
       </c>
@@ -59906,7 +59949,7 @@
       </c>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="51" t="s">
         <v>76</v>
       </c>
@@ -59984,7 +60027,7 @@
       </c>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="51" t="s">
         <v>77</v>
       </c>
@@ -60062,7 +60105,7 @@
       </c>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="51" t="s">
         <v>78</v>
       </c>
@@ -60140,7 +60183,7 @@
       </c>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="51" t="s">
         <v>79</v>
       </c>
@@ -60218,7 +60261,7 @@
       </c>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="51" t="s">
         <v>80</v>
       </c>
@@ -60296,7 +60339,7 @@
       </c>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="51" t="s">
         <v>81</v>
       </c>
@@ -60374,7 +60417,7 @@
       </c>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="51" t="s">
         <v>82</v>
       </c>
@@ -60452,7 +60495,7 @@
       </c>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="51" t="s">
         <v>83</v>
       </c>
@@ -60530,7 +60573,7 @@
       </c>
       <c r="Z90" s="6"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="51" t="s">
         <v>84</v>
       </c>
@@ -60608,7 +60651,7 @@
       </c>
       <c r="Z91" s="6"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="16">
       <c r="A92" s="51" t="s">
         <v>204</v>
       </c>
@@ -60686,7 +60729,7 @@
       </c>
       <c r="Z92" s="6"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="51" t="s">
         <v>203</v>
       </c>
@@ -60764,7 +60807,7 @@
       </c>
       <c r="Z93" s="6"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="51" t="s">
         <v>85</v>
       </c>
@@ -60842,7 +60885,7 @@
       </c>
       <c r="Z94" s="6"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="51" t="s">
         <v>86</v>
       </c>
@@ -60920,7 +60963,7 @@
       </c>
       <c r="Z95" s="6"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="51" t="s">
         <v>87</v>
       </c>
@@ -60998,7 +61041,7 @@
       </c>
       <c r="Z96" s="6"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="51" t="s">
         <v>88</v>
       </c>
@@ -61076,7 +61119,7 @@
       </c>
       <c r="Z97" s="6"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="51" t="s">
         <v>89</v>
       </c>
@@ -61154,7 +61197,7 @@
       </c>
       <c r="Z98" s="6"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="51" t="s">
         <v>90</v>
       </c>
@@ -61232,7 +61275,7 @@
       </c>
       <c r="Z99" s="6"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100" s="51" t="s">
         <v>91</v>
       </c>
@@ -61310,7 +61353,7 @@
       </c>
       <c r="Z100" s="6"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101" s="51" t="s">
         <v>92</v>
       </c>
@@ -61388,7 +61431,7 @@
       </c>
       <c r="Z101" s="6"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102" s="51" t="s">
         <v>93</v>
       </c>
@@ -61466,7 +61509,7 @@
       </c>
       <c r="Z102" s="6"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103" s="51" t="s">
         <v>94</v>
       </c>
@@ -61544,7 +61587,7 @@
       </c>
       <c r="Z103" s="6"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104" s="51" t="s">
         <v>95</v>
       </c>
@@ -61622,7 +61665,7 @@
       </c>
       <c r="Z104" s="6"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105" s="51" t="s">
         <v>96</v>
       </c>
@@ -61700,7 +61743,7 @@
       </c>
       <c r="Z105" s="6"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106" s="51" t="s">
         <v>97</v>
       </c>
@@ -61778,7 +61821,7 @@
       </c>
       <c r="Z106" s="6"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107" s="51" t="s">
         <v>98</v>
       </c>
@@ -61856,7 +61899,7 @@
       </c>
       <c r="Z107" s="6"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108" s="51" t="s">
         <v>99</v>
       </c>
@@ -61934,7 +61977,7 @@
       </c>
       <c r="Z108" s="6"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109" s="51" t="s">
         <v>100</v>
       </c>
@@ -62012,7 +62055,7 @@
       </c>
       <c r="Z109" s="6"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110" s="51" t="s">
         <v>101</v>
       </c>
@@ -62090,7 +62133,7 @@
       </c>
       <c r="Z110" s="6"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111" s="51" t="s">
         <v>102</v>
       </c>
@@ -62168,7 +62211,7 @@
       </c>
       <c r="Z111" s="6"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112" s="51" t="s">
         <v>103</v>
       </c>
@@ -62246,7 +62289,7 @@
       </c>
       <c r="Z112" s="6"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26">
       <c r="A113" s="51" t="s">
         <v>104</v>
       </c>
@@ -62324,7 +62367,7 @@
       </c>
       <c r="Z113" s="6"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26">
       <c r="A114" s="51" t="s">
         <v>105</v>
       </c>
@@ -62402,7 +62445,7 @@
       </c>
       <c r="Z114" s="6"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26">
       <c r="A115" s="51" t="s">
         <v>106</v>
       </c>
@@ -62480,7 +62523,7 @@
       </c>
       <c r="Z115" s="6"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26">
       <c r="A116" s="51" t="s">
         <v>107</v>
       </c>
@@ -62558,7 +62601,7 @@
       </c>
       <c r="Z116" s="6"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26">
       <c r="A117" s="51" t="s">
         <v>108</v>
       </c>
@@ -62636,7 +62679,7 @@
       </c>
       <c r="Z117" s="6"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26">
       <c r="A118" s="51" t="s">
         <v>109</v>
       </c>
@@ -62714,7 +62757,7 @@
       </c>
       <c r="Z118" s="6"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26">
       <c r="A119" s="51" t="s">
         <v>110</v>
       </c>
@@ -62792,7 +62835,7 @@
       </c>
       <c r="Z119" s="6"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26">
       <c r="A120" s="51" t="s">
         <v>111</v>
       </c>
@@ -62870,7 +62913,7 @@
       </c>
       <c r="Z120" s="6"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26">
       <c r="A121" s="51" t="s">
         <v>112</v>
       </c>
@@ -62948,7 +62991,7 @@
       </c>
       <c r="Z121" s="6"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26">
       <c r="A122" s="51" t="s">
         <v>113</v>
       </c>
@@ -63026,7 +63069,7 @@
       </c>
       <c r="Z122" s="6"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26">
       <c r="A123" s="51" t="s">
         <v>114</v>
       </c>
@@ -63104,7 +63147,7 @@
       </c>
       <c r="Z123" s="6"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26">
       <c r="A124" s="51" t="s">
         <v>115</v>
       </c>
@@ -63182,7 +63225,7 @@
       </c>
       <c r="Z124" s="6"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26">
       <c r="A125" s="51" t="s">
         <v>116</v>
       </c>
@@ -63260,7 +63303,7 @@
       </c>
       <c r="Z125" s="6"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26">
       <c r="A126" s="51" t="s">
         <v>117</v>
       </c>
@@ -63338,7 +63381,7 @@
       </c>
       <c r="Z126" s="6"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26">
       <c r="A127" s="51" t="s">
         <v>118</v>
       </c>
@@ -63416,7 +63459,7 @@
       </c>
       <c r="Z127" s="6"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26">
       <c r="A128" s="51" t="s">
         <v>119</v>
       </c>
@@ -63494,7 +63537,7 @@
       </c>
       <c r="Z128" s="6"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26">
       <c r="A129" s="51" t="s">
         <v>120</v>
       </c>
@@ -63572,7 +63615,7 @@
       </c>
       <c r="Z129" s="6"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26">
       <c r="A130" s="51" t="s">
         <v>122</v>
       </c>
@@ -63650,7 +63693,7 @@
       </c>
       <c r="Z130" s="6"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26">
       <c r="A131" s="51" t="s">
         <v>123</v>
       </c>
@@ -63728,7 +63771,7 @@
       </c>
       <c r="Z131" s="6"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26">
       <c r="A132" s="51" t="s">
         <v>124</v>
       </c>
@@ -63806,7 +63849,7 @@
       </c>
       <c r="Z132" s="6"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26">
       <c r="A133" s="51" t="s">
         <v>125</v>
       </c>
@@ -63884,7 +63927,7 @@
       </c>
       <c r="Z133" s="6"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26">
       <c r="A134" s="51" t="s">
         <v>126</v>
       </c>
@@ -63962,7 +64005,7 @@
       </c>
       <c r="Z134" s="6"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26">
       <c r="A135" s="51" t="s">
         <v>172</v>
       </c>
@@ -64040,7 +64083,7 @@
       </c>
       <c r="Z135" s="6"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26">
       <c r="A136" s="51" t="s">
         <v>127</v>
       </c>
@@ -64118,7 +64161,7 @@
       </c>
       <c r="Z136" s="6"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26">
       <c r="A137" s="51" t="s">
         <v>128</v>
       </c>
@@ -64196,7 +64239,7 @@
       </c>
       <c r="Z137" s="6"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26">
       <c r="A138" s="51" t="s">
         <v>129</v>
       </c>
@@ -64274,7 +64317,7 @@
       </c>
       <c r="Z138" s="6"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26">
       <c r="A139" s="51" t="s">
         <v>130</v>
       </c>
@@ -64352,7 +64395,7 @@
       </c>
       <c r="Z139" s="6"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26">
       <c r="A140" s="51" t="s">
         <v>131</v>
       </c>
@@ -64430,7 +64473,7 @@
       </c>
       <c r="Z140" s="6"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26">
       <c r="A141" s="51" t="s">
         <v>132</v>
       </c>
@@ -64508,7 +64551,7 @@
       </c>
       <c r="Z141" s="6"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26">
       <c r="A142" s="51" t="s">
         <v>133</v>
       </c>
@@ -64586,7 +64629,7 @@
       </c>
       <c r="Z142" s="6"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26">
       <c r="A143" s="51" t="s">
         <v>134</v>
       </c>
@@ -64664,7 +64707,7 @@
       </c>
       <c r="Z143" s="6"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26">
       <c r="A144" s="51" t="s">
         <v>135</v>
       </c>
@@ -64742,7 +64785,7 @@
       </c>
       <c r="Z144" s="6"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26">
       <c r="A145" s="51" t="s">
         <v>136</v>
       </c>
@@ -64820,7 +64863,7 @@
       </c>
       <c r="Z145" s="6"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26">
       <c r="A146" s="51" t="s">
         <v>137</v>
       </c>
@@ -64898,7 +64941,7 @@
       </c>
       <c r="Z146" s="6"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26">
       <c r="A147" s="51" t="s">
         <v>138</v>
       </c>
@@ -64976,7 +65019,7 @@
       </c>
       <c r="Z147" s="6"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26">
       <c r="A148" s="51" t="s">
         <v>139</v>
       </c>
@@ -65054,7 +65097,7 @@
       </c>
       <c r="Z148" s="6"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26">
       <c r="A149" s="51" t="s">
         <v>140</v>
       </c>
@@ -65132,7 +65175,7 @@
       </c>
       <c r="Z149" s="6"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26">
       <c r="A150" s="51" t="s">
         <v>141</v>
       </c>
@@ -65210,7 +65253,7 @@
       </c>
       <c r="Z150" s="6"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26">
       <c r="A151" s="51" t="s">
         <v>142</v>
       </c>
@@ -65288,7 +65331,7 @@
       </c>
       <c r="Z151" s="6"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26">
       <c r="A152" s="51" t="s">
         <v>143</v>
       </c>
@@ -65366,7 +65409,7 @@
       </c>
       <c r="Z152" s="6"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26">
       <c r="A153" s="51" t="s">
         <v>144</v>
       </c>
@@ -65444,7 +65487,7 @@
       </c>
       <c r="Z153" s="6"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26">
       <c r="A154" s="51" t="s">
         <v>145</v>
       </c>
@@ -65522,7 +65565,7 @@
       </c>
       <c r="Z154" s="6"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26">
       <c r="A155" s="51" t="s">
         <v>146</v>
       </c>
@@ -65600,7 +65643,7 @@
       </c>
       <c r="Z155" s="6"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26">
       <c r="A156" s="51" t="s">
         <v>147</v>
       </c>
@@ -65678,7 +65721,7 @@
       </c>
       <c r="Z156" s="6"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26">
       <c r="A157" s="51" t="s">
         <v>148</v>
       </c>
@@ -65756,7 +65799,7 @@
       </c>
       <c r="Z157" s="6"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26">
       <c r="A158" s="51" t="s">
         <v>149</v>
       </c>
@@ -65834,7 +65877,7 @@
       </c>
       <c r="Z158" s="6"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26">
       <c r="A159" s="51" t="s">
         <v>150</v>
       </c>
@@ -65912,7 +65955,7 @@
       </c>
       <c r="Z159" s="6"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26">
       <c r="A160" s="51" t="s">
         <v>208</v>
       </c>
@@ -65990,7 +66033,7 @@
       </c>
       <c r="Z160" s="6"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26">
       <c r="A161" s="51" t="s">
         <v>151</v>
       </c>
@@ -66068,7 +66111,7 @@
       </c>
       <c r="Z161" s="6"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26">
       <c r="A162" s="51" t="s">
         <v>152</v>
       </c>
@@ -66146,7 +66189,7 @@
       </c>
       <c r="Z162" s="6"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26">
       <c r="A163" s="51" t="s">
         <v>153</v>
       </c>
@@ -66224,7 +66267,7 @@
       </c>
       <c r="Z163" s="6"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26">
       <c r="A164" s="51" t="s">
         <v>154</v>
       </c>
@@ -66302,7 +66345,7 @@
       </c>
       <c r="Z164" s="6"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26">
       <c r="A165" s="51" t="s">
         <v>155</v>
       </c>
@@ -66380,7 +66423,7 @@
       </c>
       <c r="Z165" s="6"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26">
       <c r="A166" s="51" t="s">
         <v>156</v>
       </c>
@@ -66458,7 +66501,7 @@
       </c>
       <c r="Z166" s="6"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26">
       <c r="A167" s="51" t="s">
         <v>157</v>
       </c>
@@ -66536,7 +66579,7 @@
       </c>
       <c r="Z167" s="6"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26">
       <c r="A168" s="51" t="s">
         <v>158</v>
       </c>
@@ -66614,7 +66657,7 @@
       </c>
       <c r="Z168" s="6"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26">
       <c r="A169" s="51" t="s">
         <v>159</v>
       </c>
@@ -66692,7 +66735,7 @@
       </c>
       <c r="Z169" s="6"/>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26">
       <c r="A170" s="51" t="s">
         <v>160</v>
       </c>
@@ -66770,7 +66813,7 @@
       </c>
       <c r="Z170" s="6"/>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26">
       <c r="A171" s="51" t="s">
         <v>161</v>
       </c>
@@ -66848,7 +66891,7 @@
       </c>
       <c r="Z171" s="6"/>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26">
       <c r="A172" s="51" t="s">
         <v>162</v>
       </c>
@@ -66926,7 +66969,7 @@
       </c>
       <c r="Z172" s="6"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26">
       <c r="A173" s="51" t="s">
         <v>174</v>
       </c>
@@ -67004,7 +67047,7 @@
       </c>
       <c r="Z173" s="6"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26">
       <c r="A174" s="51" t="s">
         <v>176</v>
       </c>
@@ -67082,7 +67125,7 @@
       </c>
       <c r="Z174" s="6"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26">
       <c r="A175" s="51" t="s">
         <v>163</v>
       </c>
@@ -67160,7 +67203,7 @@
       </c>
       <c r="Z175" s="6"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26">
       <c r="A176" s="51" t="s">
         <v>164</v>
       </c>
@@ -67238,7 +67281,7 @@
       </c>
       <c r="Z176" s="6"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="16" thickBot="1">
       <c r="A177" s="44" t="s">
         <v>175</v>
       </c>
@@ -67316,7 +67359,7 @@
       </c>
       <c r="Z177" s="6"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="16">
       <c r="A179" s="2" t="s">
         <v>165</v>
       </c>
@@ -67324,37 +67367,37 @@
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A180" s="81" t="s">
+    <row r="180" spans="1:26">
+      <c r="A180" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B180" s="81"/>
-      <c r="C180" s="81"/>
-      <c r="D180" s="81"/>
-      <c r="E180" s="81"/>
-      <c r="F180" s="81"/>
-      <c r="G180" s="81"/>
-      <c r="H180" s="81"/>
-      <c r="I180" s="81"/>
+      <c r="B180" s="84"/>
+      <c r="C180" s="84"/>
+      <c r="D180" s="84"/>
+      <c r="E180" s="84"/>
+      <c r="F180" s="84"/>
+      <c r="G180" s="84"/>
+      <c r="H180" s="84"/>
+      <c r="I180" s="84"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A181" s="80" t="s">
+    <row r="181" spans="1:26" ht="16">
+      <c r="A181" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="B181" s="80"/>
-      <c r="C181" s="80"/>
-      <c r="D181" s="80"/>
-      <c r="E181" s="80"/>
-      <c r="F181" s="80"/>
-      <c r="G181" s="80"/>
-      <c r="H181" s="80"/>
-      <c r="I181" s="80"/>
-      <c r="J181" s="80"/>
-      <c r="K181" s="80"/>
-      <c r="L181" s="80"/>
-      <c r="M181" s="80"/>
+      <c r="B181" s="83"/>
+      <c r="C181" s="83"/>
+      <c r="D181" s="83"/>
+      <c r="E181" s="83"/>
+      <c r="F181" s="83"/>
+      <c r="G181" s="83"/>
+      <c r="H181" s="83"/>
+      <c r="I181" s="83"/>
+      <c r="J181" s="83"/>
+      <c r="K181" s="83"/>
+      <c r="L181" s="83"/>
+      <c r="M181" s="83"/>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="16">
       <c r="A182" s="94" t="s">
         <v>202</v>
       </c>

--- a/CHOROBOWE_osoby fizyczne.xlsx
+++ b/CHOROBOWE_osoby fizyczne.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mypc/Desktop/Studia/RStudio/straz_graniczna/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33DC959-8995-A747-A295-88D53D2C68A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E00D3-51A4-0B40-9E36-D20CBB833CDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2017" sheetId="3" r:id="rId2"/>
-    <sheet name="2018" sheetId="4" r:id="rId3"/>
+    <sheet name="03,06.2018" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'03,06.2018'!$A$1:$Y$182</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2017'!$A$1:$AW$178</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2018'!$A$1:$Y$182</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -28243,8 +28243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AX178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -53892,8 +53892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
